--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="418">
   <si>
     <t>p20_nom</t>
   </si>
@@ -88,7 +88,10 @@
     <t>c3</t>
   </si>
   <si>
-    <t>nota_iniciativa</t>
+    <t>s_i</t>
+  </si>
+  <si>
+    <t>c4</t>
   </si>
   <si>
     <t>mejorar los proceso de presupuestos participativos en la localidad</t>
@@ -1638,13 +1641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y152"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1720,13 +1723,16 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1747,13 +1753,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1762,13 +1768,13 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="S2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1782,13 +1788,16 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1809,13 +1818,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -1824,13 +1833,13 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="P3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1844,13 +1853,16 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1868,19 +1880,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1889,13 +1901,13 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1909,13 +1921,16 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1936,13 +1951,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1951,13 +1966,13 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S5" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1971,13 +1986,16 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1998,13 +2016,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -2013,13 +2031,13 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S6" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -2033,13 +2051,16 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2060,13 +2081,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -2075,13 +2096,13 @@
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P7" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2095,13 +2116,16 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2122,13 +2146,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -2137,13 +2161,13 @@
         <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P8" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S8" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2157,13 +2181,16 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2184,13 +2211,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M9">
         <v>9</v>
@@ -2199,13 +2226,13 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P9" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S9" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2219,13 +2246,16 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2246,13 +2276,13 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -2261,13 +2291,13 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2281,13 +2311,16 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2308,13 +2341,13 @@
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -2323,13 +2356,13 @@
         <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S11" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2343,13 +2376,16 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2370,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -2385,13 +2421,13 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2405,13 +2441,16 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2432,13 +2471,13 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -2447,13 +2486,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2467,13 +2506,16 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2494,13 +2536,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M14">
         <v>11</v>
@@ -2509,13 +2551,13 @@
         <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S14" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2529,13 +2571,16 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2556,13 +2601,13 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M15">
         <v>11</v>
@@ -2571,13 +2616,13 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S15" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2591,13 +2636,16 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2618,13 +2666,13 @@
         <v>1</v>
       </c>
       <c r="J16" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M16">
         <v>11</v>
@@ -2633,13 +2681,13 @@
         <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S16" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2653,13 +2701,16 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2680,13 +2731,13 @@
         <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M17">
         <v>11</v>
@@ -2695,13 +2746,13 @@
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S17" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2715,13 +2766,16 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2742,13 +2796,13 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M18">
         <v>11</v>
@@ -2757,13 +2811,13 @@
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2777,13 +2831,16 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2804,13 +2861,13 @@
         <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M19">
         <v>11</v>
@@ -2819,13 +2876,13 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S19" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2839,13 +2896,16 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2866,13 +2926,13 @@
         <v>1</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M20">
         <v>11</v>
@@ -2881,13 +2941,13 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S20" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2901,13 +2961,16 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2928,13 +2991,13 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M21">
         <v>12</v>
@@ -2943,13 +3006,13 @@
         <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P21" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S21" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2963,13 +3026,16 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2990,13 +3056,13 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M22">
         <v>13</v>
@@ -3005,13 +3071,13 @@
         <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P22" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S22" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3025,13 +3091,16 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3052,13 +3121,13 @@
         <v>1</v>
       </c>
       <c r="J23" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M23">
         <v>15</v>
@@ -3067,13 +3136,13 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S23" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3087,13 +3156,16 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3114,13 +3186,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M24">
         <v>15</v>
@@ -3129,13 +3201,13 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S24" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3149,13 +3221,16 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3176,13 +3251,13 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -3191,13 +3266,13 @@
         <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S25" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3211,13 +3286,16 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3238,13 +3316,13 @@
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M26">
         <v>16</v>
@@ -3253,13 +3331,13 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S26" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3273,13 +3351,16 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3300,13 +3381,13 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M27">
         <v>17</v>
@@ -3315,13 +3396,13 @@
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S27" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3335,13 +3416,16 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3362,13 +3446,13 @@
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M28">
         <v>18</v>
@@ -3377,13 +3461,13 @@
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S28" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3397,13 +3481,16 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3421,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M29">
         <v>19</v>
@@ -3442,13 +3529,13 @@
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S29" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3462,13 +3549,16 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3486,19 +3576,19 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M30">
         <v>19</v>
@@ -3507,13 +3597,13 @@
         <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S30" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3527,13 +3617,16 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3551,19 +3644,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M31">
         <v>19</v>
@@ -3572,13 +3665,13 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S31" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3592,13 +3685,16 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3619,13 +3715,13 @@
         <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M32">
         <v>20</v>
@@ -3634,13 +3730,13 @@
         <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P32" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S32" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3654,13 +3750,16 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3681,13 +3780,13 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M33">
         <v>20</v>
@@ -3696,13 +3795,13 @@
         <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P33" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S33" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3716,13 +3815,16 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3743,13 +3845,13 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M34">
         <v>20</v>
@@ -3758,13 +3860,13 @@
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S34" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3778,13 +3880,16 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3805,13 +3910,13 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M35">
         <v>20</v>
@@ -3820,13 +3925,13 @@
         <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P35" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S35" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3840,13 +3945,16 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3867,13 +3975,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M36">
         <v>21</v>
@@ -3882,13 +3990,13 @@
         <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3902,13 +4010,16 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3929,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="J37" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M37">
         <v>22</v>
@@ -3944,13 +4055,13 @@
         <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S37" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3964,13 +4075,16 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3988,19 +4102,19 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I38">
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M38">
         <v>22</v>
@@ -4009,13 +4123,13 @@
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S38" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4029,13 +4143,16 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4056,13 +4173,13 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39">
         <v>22</v>
@@ -4071,13 +4188,13 @@
         <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S39" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4091,13 +4208,16 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4118,13 +4238,13 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M40">
         <v>22</v>
@@ -4133,13 +4253,13 @@
         <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S40" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4153,13 +4273,16 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4180,13 +4303,13 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M41">
         <v>22</v>
@@ -4195,13 +4318,13 @@
         <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S41" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4215,13 +4338,16 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4242,13 +4368,13 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M42">
         <v>23</v>
@@ -4257,13 +4383,13 @@
         <v>38</v>
       </c>
       <c r="O42" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S42" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4277,13 +4403,16 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4304,13 +4433,13 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43">
         <v>23</v>
@@ -4319,13 +4448,13 @@
         <v>38</v>
       </c>
       <c r="O43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S43" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4339,13 +4468,16 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4366,13 +4498,13 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M44">
         <v>23</v>
@@ -4381,13 +4513,13 @@
         <v>38</v>
       </c>
       <c r="O44" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S44" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4401,13 +4533,16 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4428,13 +4563,13 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M45">
         <v>23</v>
@@ -4443,13 +4578,13 @@
         <v>38</v>
       </c>
       <c r="O45" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S45" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4463,13 +4598,16 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4490,13 +4628,13 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M46">
         <v>23</v>
@@ -4505,13 +4643,13 @@
         <v>38</v>
       </c>
       <c r="O46" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S46" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4525,13 +4663,16 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4552,13 +4693,13 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M47">
         <v>23</v>
@@ -4567,13 +4708,13 @@
         <v>38</v>
       </c>
       <c r="O47" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S47" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4587,13 +4728,16 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4614,13 +4758,13 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M48">
         <v>23</v>
@@ -4629,13 +4773,13 @@
         <v>38</v>
       </c>
       <c r="O48" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S48" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4649,13 +4793,16 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4676,13 +4823,13 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M49">
         <v>23</v>
@@ -4691,13 +4838,13 @@
         <v>38</v>
       </c>
       <c r="O49" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S49" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4711,13 +4858,16 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4738,13 +4888,13 @@
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M50">
         <v>23</v>
@@ -4753,13 +4903,13 @@
         <v>38</v>
       </c>
       <c r="O50" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S50" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4773,13 +4923,16 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4800,13 +4953,13 @@
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M51">
         <v>23</v>
@@ -4815,13 +4968,13 @@
         <v>38</v>
       </c>
       <c r="O51" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S51" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4835,13 +4988,16 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4862,13 +5018,13 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M52">
         <v>23</v>
@@ -4877,13 +5033,13 @@
         <v>38</v>
       </c>
       <c r="O52" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S52" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4897,13 +5053,16 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4924,13 +5083,13 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M53">
         <v>23</v>
@@ -4939,13 +5098,13 @@
         <v>38</v>
       </c>
       <c r="O53" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S53" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4959,13 +5118,16 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4986,13 +5148,13 @@
         <v>1</v>
       </c>
       <c r="J54" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M54">
         <v>23</v>
@@ -5001,13 +5163,13 @@
         <v>38</v>
       </c>
       <c r="O54" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S54" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5021,13 +5183,16 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5048,13 +5213,13 @@
         <v>1</v>
       </c>
       <c r="J55" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M55">
         <v>23</v>
@@ -5063,13 +5228,13 @@
         <v>38</v>
       </c>
       <c r="O55" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S55" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5083,13 +5248,16 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5107,19 +5275,19 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I56">
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M56">
         <v>24</v>
@@ -5128,13 +5296,13 @@
         <v>51</v>
       </c>
       <c r="O56" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P56" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S56" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5148,13 +5316,16 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5172,19 +5343,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M57">
         <v>24</v>
@@ -5193,13 +5364,13 @@
         <v>51</v>
       </c>
       <c r="O57" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5213,13 +5384,16 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5240,13 +5414,13 @@
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -5255,13 +5429,13 @@
         <v>51</v>
       </c>
       <c r="O58" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S58" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5275,13 +5449,16 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5302,13 +5479,13 @@
         <v>1</v>
       </c>
       <c r="J59" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M59">
         <v>24</v>
@@ -5317,13 +5494,13 @@
         <v>51</v>
       </c>
       <c r="O59" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S59" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5337,13 +5514,16 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5364,13 +5544,13 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M60">
         <v>24</v>
@@ -5379,13 +5559,13 @@
         <v>51</v>
       </c>
       <c r="O60" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S60" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5399,13 +5579,16 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5426,13 +5609,13 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M61">
         <v>26</v>
@@ -5441,13 +5624,13 @@
         <v>55</v>
       </c>
       <c r="O61" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S61" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5461,13 +5644,16 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5488,13 +5674,13 @@
         <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M62">
         <v>26</v>
@@ -5503,13 +5689,13 @@
         <v>55</v>
       </c>
       <c r="O62" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P62" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S62" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5523,13 +5709,16 @@
       <c r="Y62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5550,13 +5739,13 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M63">
         <v>27</v>
@@ -5565,13 +5754,13 @@
         <v>56</v>
       </c>
       <c r="O63" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P63" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S63" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5585,13 +5774,16 @@
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5612,13 +5804,13 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M64">
         <v>28</v>
@@ -5627,13 +5819,13 @@
         <v>57</v>
       </c>
       <c r="O64" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P64" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S64" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -5647,13 +5839,16 @@
       <c r="Y64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5674,13 +5869,13 @@
         <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M65">
         <v>28</v>
@@ -5689,13 +5884,13 @@
         <v>57</v>
       </c>
       <c r="O65" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P65" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S65" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -5709,13 +5904,16 @@
       <c r="Y65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5736,13 +5934,13 @@
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M66">
         <v>28</v>
@@ -5751,13 +5949,13 @@
         <v>57</v>
       </c>
       <c r="O66" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P66" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S66" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -5771,13 +5969,16 @@
       <c r="Y66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5798,13 +5999,13 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M67">
         <v>28</v>
@@ -5813,13 +6014,13 @@
         <v>57</v>
       </c>
       <c r="O67" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S67" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -5833,13 +6034,16 @@
       <c r="Y67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5860,13 +6064,13 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M68">
         <v>29</v>
@@ -5875,13 +6079,13 @@
         <v>58</v>
       </c>
       <c r="O68" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S68" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5895,13 +6099,16 @@
       <c r="Y68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5922,13 +6129,13 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M69">
         <v>29</v>
@@ -5937,13 +6144,13 @@
         <v>58</v>
       </c>
       <c r="O69" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P69" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S69" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -5957,13 +6164,16 @@
       <c r="Y69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5984,13 +6194,13 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M70">
         <v>30</v>
@@ -5999,13 +6209,13 @@
         <v>59</v>
       </c>
       <c r="O70" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S70" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6019,13 +6229,16 @@
       <c r="Y70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6046,13 +6259,13 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M71">
         <v>30</v>
@@ -6061,13 +6274,13 @@
         <v>59</v>
       </c>
       <c r="O71" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S71" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -6081,13 +6294,16 @@
       <c r="Y71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6108,13 +6324,13 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M72">
         <v>30</v>
@@ -6123,13 +6339,13 @@
         <v>59</v>
       </c>
       <c r="O72" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S72" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -6143,13 +6359,16 @@
       <c r="Y72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6170,13 +6389,13 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M73">
         <v>30</v>
@@ -6185,13 +6404,13 @@
         <v>59</v>
       </c>
       <c r="O73" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S73" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -6205,13 +6424,16 @@
       <c r="Y73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6232,13 +6454,13 @@
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M74">
         <v>30</v>
@@ -6247,13 +6469,13 @@
         <v>59</v>
       </c>
       <c r="O74" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S74" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6267,13 +6489,16 @@
       <c r="Y74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6294,13 +6519,13 @@
         <v>1</v>
       </c>
       <c r="J75" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M75">
         <v>31</v>
@@ -6309,13 +6534,13 @@
         <v>60</v>
       </c>
       <c r="O75" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P75" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S75" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -6329,13 +6554,16 @@
       <c r="Y75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6356,13 +6584,13 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M76">
         <v>31</v>
@@ -6371,13 +6599,13 @@
         <v>60</v>
       </c>
       <c r="O76" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P76" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S76" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -6391,13 +6619,16 @@
       <c r="Y76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6418,13 +6649,13 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M77">
         <v>31</v>
@@ -6433,13 +6664,13 @@
         <v>60</v>
       </c>
       <c r="O77" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P77" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S77" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -6453,13 +6684,16 @@
       <c r="Y77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6480,13 +6714,13 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M78">
         <v>32</v>
@@ -6495,13 +6729,13 @@
         <v>61</v>
       </c>
       <c r="O78" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P78" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S78" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -6515,13 +6749,16 @@
       <c r="Y78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6542,13 +6779,13 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M79">
         <v>33</v>
@@ -6557,13 +6794,13 @@
         <v>63</v>
       </c>
       <c r="O79" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P79" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S79" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -6577,13 +6814,16 @@
       <c r="Y79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6604,13 +6844,13 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M80">
         <v>33</v>
@@ -6619,13 +6859,13 @@
         <v>63</v>
       </c>
       <c r="O80" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P80" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S80" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -6639,13 +6879,16 @@
       <c r="Y80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6666,13 +6909,13 @@
         <v>1</v>
       </c>
       <c r="J81" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M81">
         <v>33</v>
@@ -6681,13 +6924,13 @@
         <v>63</v>
       </c>
       <c r="O81" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P81" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S81" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -6701,13 +6944,16 @@
       <c r="Y81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6728,13 +6974,13 @@
         <v>1</v>
       </c>
       <c r="J82" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M82">
         <v>33</v>
@@ -6743,13 +6989,13 @@
         <v>63</v>
       </c>
       <c r="O82" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P82" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S82" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -6763,13 +7009,16 @@
       <c r="Y82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6790,13 +7039,13 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M83">
         <v>33</v>
@@ -6805,13 +7054,13 @@
         <v>63</v>
       </c>
       <c r="O83" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P83" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S83" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -6825,13 +7074,16 @@
       <c r="Y83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -6852,13 +7104,13 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M84">
         <v>34</v>
@@ -6867,13 +7119,13 @@
         <v>64</v>
       </c>
       <c r="O84" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P84" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S84" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -6887,13 +7139,16 @@
       <c r="Y84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6914,13 +7169,13 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K85">
         <v>84</v>
       </c>
       <c r="L85" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M85">
         <v>34</v>
@@ -6929,13 +7184,13 @@
         <v>64</v>
       </c>
       <c r="O85" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P85" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S85" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -6949,13 +7204,16 @@
       <c r="Y85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6973,19 +7231,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I86">
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K86">
         <v>85</v>
       </c>
       <c r="L86" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M86">
         <v>36</v>
@@ -6994,13 +7252,13 @@
         <v>77</v>
       </c>
       <c r="O86" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P86" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S86" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -7014,13 +7272,16 @@
       <c r="Y86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7041,13 +7302,13 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K87">
         <v>86</v>
       </c>
       <c r="L87" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M87">
         <v>36</v>
@@ -7056,13 +7317,13 @@
         <v>77</v>
       </c>
       <c r="O87" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P87" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S87" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -7076,13 +7337,16 @@
       <c r="Y87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7103,13 +7367,13 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K88">
         <v>87</v>
       </c>
       <c r="L88" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M88">
         <v>37</v>
@@ -7118,13 +7382,13 @@
         <v>78</v>
       </c>
       <c r="O88" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P88" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S88" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -7138,13 +7402,16 @@
       <c r="Y88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7165,13 +7432,13 @@
         <v>1</v>
       </c>
       <c r="J89" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K89">
         <v>88</v>
       </c>
       <c r="L89" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M89">
         <v>37</v>
@@ -7180,13 +7447,13 @@
         <v>78</v>
       </c>
       <c r="O89" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P89" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S89" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -7200,13 +7467,16 @@
       <c r="Y89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7227,13 +7497,13 @@
         <v>1</v>
       </c>
       <c r="J90" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K90">
         <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M90">
         <v>37</v>
@@ -7242,13 +7512,13 @@
         <v>78</v>
       </c>
       <c r="O90" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P90" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S90" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -7262,13 +7532,16 @@
       <c r="Y90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7289,13 +7562,13 @@
         <v>1</v>
       </c>
       <c r="J91" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K91">
         <v>90</v>
       </c>
       <c r="L91" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M91">
         <v>38</v>
@@ -7304,13 +7577,13 @@
         <v>80</v>
       </c>
       <c r="O91" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P91" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S91" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -7324,13 +7597,16 @@
       <c r="Y91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7348,19 +7624,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I92">
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K92">
         <v>91</v>
       </c>
       <c r="L92" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M92">
         <v>39</v>
@@ -7369,13 +7645,13 @@
         <v>81</v>
       </c>
       <c r="O92" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P92" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S92" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -7389,13 +7665,16 @@
       <c r="Y92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7413,19 +7692,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I93">
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K93">
         <v>92</v>
       </c>
       <c r="L93" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M93">
         <v>39</v>
@@ -7434,13 +7713,13 @@
         <v>81</v>
       </c>
       <c r="O93" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P93" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S93" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -7454,13 +7733,16 @@
       <c r="Y93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -7478,19 +7760,19 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I94">
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K94">
         <v>93</v>
       </c>
       <c r="L94" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M94">
         <v>39</v>
@@ -7499,13 +7781,13 @@
         <v>81</v>
       </c>
       <c r="O94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P94" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S94" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -7519,13 +7801,16 @@
       <c r="Y94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7543,19 +7828,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K95">
         <v>94</v>
       </c>
       <c r="L95" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M95">
         <v>39</v>
@@ -7564,13 +7849,13 @@
         <v>81</v>
       </c>
       <c r="O95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P95" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S95" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -7584,13 +7869,16 @@
       <c r="Y95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7608,19 +7896,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K96">
         <v>95</v>
       </c>
       <c r="L96" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M96">
         <v>39</v>
@@ -7629,13 +7917,13 @@
         <v>81</v>
       </c>
       <c r="O96" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P96" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S96" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -7649,13 +7937,16 @@
       <c r="Y96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7673,19 +7964,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K97">
         <v>96</v>
       </c>
       <c r="L97" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M97">
         <v>39</v>
@@ -7694,13 +7985,13 @@
         <v>81</v>
       </c>
       <c r="O97" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P97" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S97" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -7714,13 +8005,16 @@
       <c r="Y97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -7738,19 +8032,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K98">
         <v>97</v>
       </c>
       <c r="L98" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M98">
         <v>39</v>
@@ -7759,13 +8053,13 @@
         <v>81</v>
       </c>
       <c r="O98" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P98" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S98" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -7779,13 +8073,16 @@
       <c r="Y98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7806,13 +8103,13 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K99">
         <v>98</v>
       </c>
       <c r="L99" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M99">
         <v>39</v>
@@ -7821,13 +8118,13 @@
         <v>81</v>
       </c>
       <c r="O99" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P99" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -7841,13 +8138,16 @@
       <c r="Y99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7868,13 +8168,13 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K100">
         <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M100">
         <v>39</v>
@@ -7883,13 +8183,13 @@
         <v>81</v>
       </c>
       <c r="O100" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P100" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S100" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -7903,13 +8203,16 @@
       <c r="Y100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7930,13 +8233,13 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K101">
         <v>100</v>
       </c>
       <c r="L101" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M101">
         <v>39</v>
@@ -7945,13 +8248,13 @@
         <v>81</v>
       </c>
       <c r="O101" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S101" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -7965,13 +8268,16 @@
       <c r="Y101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -7992,13 +8298,13 @@
         <v>0</v>
       </c>
       <c r="J102" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K102">
         <v>101</v>
       </c>
       <c r="L102" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M102">
         <v>40</v>
@@ -8007,13 +8313,13 @@
         <v>82</v>
       </c>
       <c r="O102" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P102" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S102" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -8027,13 +8333,16 @@
       <c r="Y102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -8054,13 +8363,13 @@
         <v>0</v>
       </c>
       <c r="J103" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K103">
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M103">
         <v>40</v>
@@ -8069,13 +8378,13 @@
         <v>82</v>
       </c>
       <c r="O103" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P103" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S103" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -8089,13 +8398,16 @@
       <c r="Y103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8116,13 +8428,13 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K104">
         <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M104">
         <v>42</v>
@@ -8131,13 +8443,13 @@
         <v>84</v>
       </c>
       <c r="O104" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P104" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S104" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -8151,13 +8463,16 @@
       <c r="Y104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8178,13 +8493,13 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K105">
         <v>104</v>
       </c>
       <c r="L105" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M105">
         <v>44</v>
@@ -8193,13 +8508,13 @@
         <v>87</v>
       </c>
       <c r="O105" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P105" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S105" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V105">
         <v>0</v>
@@ -8213,13 +8528,16 @@
       <c r="Y105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8240,13 +8558,13 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K106">
         <v>105</v>
       </c>
       <c r="L106" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M106">
         <v>44</v>
@@ -8255,13 +8573,13 @@
         <v>87</v>
       </c>
       <c r="O106" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P106" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S106" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -8275,13 +8593,16 @@
       <c r="Y106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8302,13 +8623,13 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K107">
         <v>106</v>
       </c>
       <c r="L107" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M107">
         <v>44</v>
@@ -8317,13 +8638,13 @@
         <v>87</v>
       </c>
       <c r="O107" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P107" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S107" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -8337,13 +8658,16 @@
       <c r="Y107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8364,13 +8688,13 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K108">
         <v>107</v>
       </c>
       <c r="L108" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M108">
         <v>44</v>
@@ -8379,13 +8703,13 @@
         <v>87</v>
       </c>
       <c r="O108" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P108" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S108" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -8399,13 +8723,16 @@
       <c r="Y108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8426,13 +8753,13 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K109">
         <v>108</v>
       </c>
       <c r="L109" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M109">
         <v>45</v>
@@ -8441,13 +8768,13 @@
         <v>88</v>
       </c>
       <c r="O109" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P109" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S109" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -8461,13 +8788,16 @@
       <c r="Y109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8488,13 +8818,13 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K110">
         <v>109</v>
       </c>
       <c r="L110" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M110">
         <v>45</v>
@@ -8503,13 +8833,13 @@
         <v>88</v>
       </c>
       <c r="O110" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P110" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S110" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -8523,13 +8853,16 @@
       <c r="Y110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8550,13 +8883,13 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K111">
         <v>110</v>
       </c>
       <c r="L111" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M111">
         <v>45</v>
@@ -8565,13 +8898,13 @@
         <v>88</v>
       </c>
       <c r="O111" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P111" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S111" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -8585,13 +8918,16 @@
       <c r="Y111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8612,13 +8948,13 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K112">
         <v>111</v>
       </c>
       <c r="L112" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M112">
         <v>45</v>
@@ -8627,13 +8963,13 @@
         <v>88</v>
       </c>
       <c r="O112" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P112" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S112" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -8647,13 +8983,16 @@
       <c r="Y112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8674,13 +9013,13 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K113">
         <v>112</v>
       </c>
       <c r="L113" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M113">
         <v>45</v>
@@ -8689,13 +9028,13 @@
         <v>88</v>
       </c>
       <c r="O113" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P113" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S113" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -8709,13 +9048,16 @@
       <c r="Y113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -8736,13 +9078,13 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K114">
         <v>113</v>
       </c>
       <c r="L114" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M114">
         <v>45</v>
@@ -8751,13 +9093,13 @@
         <v>88</v>
       </c>
       <c r="O114" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P114" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S114" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -8771,13 +9113,16 @@
       <c r="Y114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8798,13 +9143,13 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K115">
         <v>114</v>
       </c>
       <c r="L115" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M115">
         <v>46</v>
@@ -8813,13 +9158,13 @@
         <v>90</v>
       </c>
       <c r="O115" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P115" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S115" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -8833,13 +9178,16 @@
       <c r="Y115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8860,13 +9208,13 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K116">
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M116">
         <v>46</v>
@@ -8875,13 +9223,13 @@
         <v>90</v>
       </c>
       <c r="O116" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P116" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S116" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -8895,13 +9243,16 @@
       <c r="Y116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8922,13 +9273,13 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K117">
         <v>116</v>
       </c>
       <c r="L117" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M117">
         <v>46</v>
@@ -8937,13 +9288,13 @@
         <v>90</v>
       </c>
       <c r="O117" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P117" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S117" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -8957,13 +9308,16 @@
       <c r="Y117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8984,13 +9338,13 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K118">
         <v>117</v>
       </c>
       <c r="L118" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M118">
         <v>46</v>
@@ -8999,13 +9353,13 @@
         <v>90</v>
       </c>
       <c r="O118" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S118" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -9019,13 +9373,16 @@
       <c r="Y118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9046,13 +9403,13 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K119">
         <v>118</v>
       </c>
       <c r="L119" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M119">
         <v>47</v>
@@ -9061,13 +9418,13 @@
         <v>91</v>
       </c>
       <c r="O119" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P119" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S119" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -9081,13 +9438,16 @@
       <c r="Y119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9105,19 +9465,19 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I120">
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K120">
         <v>119</v>
       </c>
       <c r="L120" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M120">
         <v>49</v>
@@ -9126,13 +9486,13 @@
         <v>93</v>
       </c>
       <c r="O120" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P120" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S120" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -9146,13 +9506,16 @@
       <c r="Y120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9170,19 +9533,19 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I121">
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K121">
         <v>120</v>
       </c>
       <c r="L121" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M121">
         <v>49</v>
@@ -9191,13 +9554,13 @@
         <v>93</v>
       </c>
       <c r="O121" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P121" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S121" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -9211,13 +9574,16 @@
       <c r="Y121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9235,19 +9601,19 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I122">
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K122">
         <v>121</v>
       </c>
       <c r="L122" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M122">
         <v>50</v>
@@ -9256,13 +9622,13 @@
         <v>94</v>
       </c>
       <c r="O122" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P122" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S122" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -9276,13 +9642,16 @@
       <c r="Y122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -9300,19 +9669,19 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I123">
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K123">
         <v>122</v>
       </c>
       <c r="L123" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M123">
         <v>50</v>
@@ -9321,13 +9690,13 @@
         <v>94</v>
       </c>
       <c r="O123" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P123" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S123" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -9341,13 +9710,16 @@
       <c r="Y123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -9365,19 +9737,19 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I124">
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K124">
         <v>123</v>
       </c>
       <c r="L124" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M124">
         <v>50</v>
@@ -9386,13 +9758,13 @@
         <v>94</v>
       </c>
       <c r="O124" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P124" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S124" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V124">
         <v>0</v>
@@ -9406,13 +9778,16 @@
       <c r="Y124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -9433,13 +9808,13 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K125">
         <v>124</v>
       </c>
       <c r="L125" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M125">
         <v>50</v>
@@ -9448,13 +9823,13 @@
         <v>94</v>
       </c>
       <c r="O125" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P125" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S125" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -9468,13 +9843,16 @@
       <c r="Y125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9495,13 +9873,13 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K126">
         <v>125</v>
       </c>
       <c r="L126" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M126">
         <v>51</v>
@@ -9510,13 +9888,13 @@
         <v>95</v>
       </c>
       <c r="O126" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P126" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S126" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V126">
         <v>0</v>
@@ -9530,13 +9908,16 @@
       <c r="Y126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9557,13 +9938,13 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K127">
         <v>126</v>
       </c>
       <c r="L127" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M127">
         <v>51</v>
@@ -9572,13 +9953,13 @@
         <v>95</v>
       </c>
       <c r="O127" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P127" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S127" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -9592,13 +9973,16 @@
       <c r="Y127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9619,13 +10003,13 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K128">
         <v>127</v>
       </c>
       <c r="L128" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M128">
         <v>52</v>
@@ -9634,13 +10018,13 @@
         <v>96</v>
       </c>
       <c r="O128" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P128" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="S128" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V128">
         <v>0</v>
@@ -9654,13 +10038,16 @@
       <c r="Y128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9681,13 +10068,13 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K129">
         <v>128</v>
       </c>
       <c r="L129" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M129">
         <v>53</v>
@@ -9696,13 +10083,13 @@
         <v>98</v>
       </c>
       <c r="O129" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P129" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S129" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -9716,13 +10103,16 @@
       <c r="Y129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -9743,13 +10133,13 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K130">
         <v>129</v>
       </c>
       <c r="L130" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M130">
         <v>53</v>
@@ -9758,13 +10148,13 @@
         <v>98</v>
       </c>
       <c r="O130" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P130" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S130" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -9778,13 +10168,16 @@
       <c r="Y130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9805,13 +10198,13 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K131">
         <v>130</v>
       </c>
       <c r="L131" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M131">
         <v>54</v>
@@ -9820,13 +10213,13 @@
         <v>99</v>
       </c>
       <c r="O131" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P131" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S131" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -9840,13 +10233,16 @@
       <c r="Y131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9867,13 +10263,13 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K132">
         <v>131</v>
       </c>
       <c r="L132" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M132">
         <v>54</v>
@@ -9882,13 +10278,13 @@
         <v>99</v>
       </c>
       <c r="O132" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P132" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S132" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -9902,13 +10298,16 @@
       <c r="Y132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -9929,13 +10328,13 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K133">
         <v>132</v>
       </c>
       <c r="L133" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M133">
         <v>54</v>
@@ -9944,13 +10343,13 @@
         <v>99</v>
       </c>
       <c r="O133" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P133" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S133" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -9964,13 +10363,16 @@
       <c r="Y133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9991,13 +10393,13 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K134">
         <v>133</v>
       </c>
       <c r="L134" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M134">
         <v>54</v>
@@ -10006,13 +10408,13 @@
         <v>99</v>
       </c>
       <c r="O134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P134" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S134" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V134">
         <v>0</v>
@@ -10026,13 +10428,16 @@
       <c r="Y134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10053,13 +10458,13 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K135">
         <v>134</v>
       </c>
       <c r="L135" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M135">
         <v>55</v>
@@ -10068,13 +10473,13 @@
         <v>100</v>
       </c>
       <c r="O135" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P135" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S135" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V135">
         <v>0</v>
@@ -10088,13 +10493,16 @@
       <c r="Y135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -10115,13 +10523,13 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K136">
         <v>135</v>
       </c>
       <c r="L136" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M136">
         <v>55</v>
@@ -10130,13 +10538,13 @@
         <v>100</v>
       </c>
       <c r="O136" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P136" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S136" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -10150,13 +10558,16 @@
       <c r="Y136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10177,13 +10588,13 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K137">
         <v>136</v>
       </c>
       <c r="L137" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M137">
         <v>56</v>
@@ -10192,13 +10603,13 @@
         <v>101</v>
       </c>
       <c r="O137" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P137" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S137" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -10212,13 +10623,16 @@
       <c r="Y137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:25">
+      <c r="Z137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10239,13 +10653,13 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K138">
         <v>137</v>
       </c>
       <c r="L138" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M138">
         <v>56</v>
@@ -10254,13 +10668,13 @@
         <v>101</v>
       </c>
       <c r="O138" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P138" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S138" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -10274,13 +10688,16 @@
       <c r="Y138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:25">
+      <c r="Z138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10301,13 +10718,13 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K139">
         <v>138</v>
       </c>
       <c r="L139" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M139">
         <v>56</v>
@@ -10316,13 +10733,13 @@
         <v>101</v>
       </c>
       <c r="O139" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P139" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S139" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -10336,13 +10753,16 @@
       <c r="Y139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:25">
+      <c r="Z139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10363,13 +10783,13 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K140">
         <v>139</v>
       </c>
       <c r="L140" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M140">
         <v>57</v>
@@ -10378,13 +10798,13 @@
         <v>102</v>
       </c>
       <c r="O140" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P140" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S140" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V140">
         <v>0</v>
@@ -10398,13 +10818,16 @@
       <c r="Y140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:25">
+      <c r="Z140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10425,13 +10848,13 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K141">
         <v>140</v>
       </c>
       <c r="L141" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M141">
         <v>57</v>
@@ -10440,13 +10863,13 @@
         <v>102</v>
       </c>
       <c r="O141" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P141" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S141" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -10460,13 +10883,16 @@
       <c r="Y141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:25">
+      <c r="Z141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10487,13 +10913,13 @@
         <v>1</v>
       </c>
       <c r="J142" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K142">
         <v>141</v>
       </c>
       <c r="L142" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M142">
         <v>57</v>
@@ -10502,13 +10928,13 @@
         <v>102</v>
       </c>
       <c r="O142" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P142" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S142" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -10522,13 +10948,16 @@
       <c r="Y142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:25">
+      <c r="Z142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -10546,19 +10975,19 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I143">
         <v>1</v>
       </c>
       <c r="J143" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K143">
         <v>142</v>
       </c>
       <c r="L143" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M143">
         <v>58</v>
@@ -10567,13 +10996,13 @@
         <v>103</v>
       </c>
       <c r="O143" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P143" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="S143" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V143">
         <v>0</v>
@@ -10587,13 +11016,16 @@
       <c r="Y143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:25">
+      <c r="Z143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10614,13 +11046,13 @@
         <v>1</v>
       </c>
       <c r="J144" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K144">
         <v>143</v>
       </c>
       <c r="L144" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M144">
         <v>59</v>
@@ -10629,13 +11061,13 @@
         <v>104</v>
       </c>
       <c r="O144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P144" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S144" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V144">
         <v>0</v>
@@ -10649,13 +11081,16 @@
       <c r="Y144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:25">
+      <c r="Z144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10676,13 +11111,13 @@
         <v>1</v>
       </c>
       <c r="J145" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K145">
         <v>144</v>
       </c>
       <c r="L145" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M145">
         <v>59</v>
@@ -10691,13 +11126,13 @@
         <v>104</v>
       </c>
       <c r="O145" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P145" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S145" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V145">
         <v>0</v>
@@ -10711,13 +11146,16 @@
       <c r="Y145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:25">
+      <c r="Z145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10738,13 +11176,13 @@
         <v>1</v>
       </c>
       <c r="J146" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K146">
         <v>145</v>
       </c>
       <c r="L146" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M146">
         <v>60</v>
@@ -10753,13 +11191,13 @@
         <v>105</v>
       </c>
       <c r="O146" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P146" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="S146" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V146">
         <v>0</v>
@@ -10773,13 +11211,16 @@
       <c r="Y146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:25">
+      <c r="Z146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -10800,13 +11241,13 @@
         <v>1</v>
       </c>
       <c r="J147" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K147">
         <v>146</v>
       </c>
       <c r="L147" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M147">
         <v>61</v>
@@ -10815,13 +11256,13 @@
         <v>106</v>
       </c>
       <c r="O147" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P147" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="S147" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -10835,13 +11276,16 @@
       <c r="Y147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:25">
+      <c r="Z147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -10862,13 +11306,13 @@
         <v>1</v>
       </c>
       <c r="J148" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K148">
         <v>147</v>
       </c>
       <c r="L148" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M148">
         <v>64</v>
@@ -10877,13 +11321,13 @@
         <v>110</v>
       </c>
       <c r="O148" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P148" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S148" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -10897,13 +11341,16 @@
       <c r="Y148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:25">
+      <c r="Z148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -10924,13 +11371,13 @@
         <v>1</v>
       </c>
       <c r="J149" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K149">
         <v>148</v>
       </c>
       <c r="L149" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M149">
         <v>65</v>
@@ -10939,13 +11386,13 @@
         <v>111</v>
       </c>
       <c r="O149" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P149" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S149" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -10959,13 +11406,16 @@
       <c r="Y149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:25">
+      <c r="Z149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10986,13 +11436,13 @@
         <v>1</v>
       </c>
       <c r="J150" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K150">
         <v>149</v>
       </c>
       <c r="L150" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M150">
         <v>66</v>
@@ -11001,13 +11451,13 @@
         <v>113</v>
       </c>
       <c r="O150" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P150" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="S150" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -11021,13 +11471,16 @@
       <c r="Y150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:25">
+      <c r="Z150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11048,13 +11501,13 @@
         <v>1</v>
       </c>
       <c r="J151" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K151">
         <v>150</v>
       </c>
       <c r="L151" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M151">
         <v>68</v>
@@ -11063,13 +11516,13 @@
         <v>115</v>
       </c>
       <c r="O151" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P151" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S151" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="V151">
         <v>0</v>
@@ -11083,13 +11536,16 @@
       <c r="Y151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:25">
+      <c r="Z151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11110,13 +11566,13 @@
         <v>1</v>
       </c>
       <c r="J152" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K152">
         <v>151</v>
       </c>
       <c r="L152" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M152">
         <v>71</v>
@@ -11125,13 +11581,13 @@
         <v>119</v>
       </c>
       <c r="O152" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P152" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S152" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="V152">
         <v>0</v>
@@ -11143,6 +11599,9 @@
         <v>0</v>
       </c>
       <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="421">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="419">
   <si>
     <t>p20_nom</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>c3</t>
-  </si>
-  <si>
-    <t>s_i</t>
-  </si>
-  <si>
-    <t>c4</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1650,13 +1644,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA152"/>
+  <dimension ref="A1:Y152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1732,19 +1726,13 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1762,16 +1750,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J2" t="s">
         <v>207</v>
       </c>
-      <c r="J2" t="s">
-        <v>209</v>
-      </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1780,13 +1768,13 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="P2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="S2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1800,19 +1788,13 @@
       <c r="Y2">
         <v>0</v>
       </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
+    </row>
+    <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1830,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -1848,13 +1830,13 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="P3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1868,19 +1850,13 @@
       <c r="Y3">
         <v>0</v>
       </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27">
+    </row>
+    <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1898,19 +1874,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1919,13 +1895,13 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1939,19 +1915,13 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27">
+    </row>
+    <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1969,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1987,13 +1957,13 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S5" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -2007,19 +1977,13 @@
       <c r="Y5">
         <v>0</v>
       </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27">
+    </row>
+    <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2037,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -2055,13 +2019,13 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="P6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S6" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -2075,19 +2039,13 @@
       <c r="Y6">
         <v>0</v>
       </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27">
+    </row>
+    <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2105,16 +2063,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -2123,13 +2081,13 @@
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P7" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S7" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2143,19 +2101,13 @@
       <c r="Y7">
         <v>0</v>
       </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27">
+    </row>
+    <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2173,16 +2125,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J8" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -2191,13 +2143,13 @@
         <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="P8" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S8" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2211,19 +2163,13 @@
       <c r="Y8">
         <v>0</v>
       </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
+    </row>
+    <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2241,16 +2187,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M9">
         <v>9</v>
@@ -2259,13 +2205,13 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P9" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S9" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2279,19 +2225,13 @@
       <c r="Y9">
         <v>0</v>
       </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
+    </row>
+    <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2309,16 +2249,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -2327,13 +2267,13 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S10" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2347,19 +2287,13 @@
       <c r="Y10">
         <v>0</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27">
+    </row>
+    <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2377,16 +2311,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J11" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -2395,13 +2329,13 @@
         <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="P11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2415,19 +2349,13 @@
       <c r="Y11">
         <v>0</v>
       </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27">
+    </row>
+    <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2445,16 +2373,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J12" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -2463,13 +2391,13 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2483,19 +2411,13 @@
       <c r="Y12">
         <v>0</v>
       </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27">
+    </row>
+    <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2513,16 +2435,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -2531,13 +2453,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2551,19 +2473,13 @@
       <c r="Y13">
         <v>0</v>
       </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27">
+    </row>
+    <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2581,16 +2497,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M14">
         <v>11</v>
@@ -2599,13 +2515,13 @@
         <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2619,19 +2535,13 @@
       <c r="Y14">
         <v>0</v>
       </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27">
+    </row>
+    <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2649,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M15">
         <v>11</v>
@@ -2667,13 +2577,13 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S15" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2687,19 +2597,13 @@
       <c r="Y15">
         <v>0</v>
       </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27">
+    </row>
+    <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2717,16 +2621,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M16">
         <v>11</v>
@@ -2735,13 +2639,13 @@
         <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S16" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2755,19 +2659,13 @@
       <c r="Y16">
         <v>0</v>
       </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27">
+    </row>
+    <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2785,16 +2683,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M17">
         <v>11</v>
@@ -2803,13 +2701,13 @@
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S17" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2823,19 +2721,13 @@
       <c r="Y17">
         <v>0</v>
       </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27">
+    </row>
+    <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2853,16 +2745,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J18" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M18">
         <v>11</v>
@@ -2871,13 +2763,13 @@
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S18" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2891,19 +2783,13 @@
       <c r="Y18">
         <v>0</v>
       </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27">
+    </row>
+    <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2921,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J19" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M19">
         <v>11</v>
@@ -2939,13 +2825,13 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S19" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2959,19 +2845,13 @@
       <c r="Y19">
         <v>0</v>
       </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27">
+    </row>
+    <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2989,16 +2869,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M20">
         <v>11</v>
@@ -3007,13 +2887,13 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="P20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S20" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -3027,19 +2907,13 @@
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27">
+    </row>
+    <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -3057,16 +2931,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J21" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M21">
         <v>12</v>
@@ -3075,13 +2949,13 @@
         <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="P21" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S21" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -3095,19 +2969,13 @@
       <c r="Y21">
         <v>0</v>
       </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27">
+    </row>
+    <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -3125,16 +2993,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J22" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M22">
         <v>13</v>
@@ -3143,13 +3011,13 @@
         <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P22" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S22" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3163,19 +3031,13 @@
       <c r="Y22">
         <v>0</v>
       </c>
-      <c r="Z22">
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27">
+    </row>
+    <row r="23" spans="1:25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3193,16 +3055,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M23">
         <v>15</v>
@@ -3211,13 +3073,13 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S23" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3231,19 +3093,13 @@
       <c r="Y23">
         <v>0</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27">
+    </row>
+    <row r="24" spans="1:25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3261,16 +3117,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J24" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M24">
         <v>15</v>
@@ -3279,13 +3135,13 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S24" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3299,19 +3155,13 @@
       <c r="Y24">
         <v>0</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27">
+    </row>
+    <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3329,16 +3179,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J25" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -3347,13 +3197,13 @@
         <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="P25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S25" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3367,19 +3217,13 @@
       <c r="Y25">
         <v>0</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27">
+    </row>
+    <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3397,16 +3241,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M26">
         <v>16</v>
@@ -3415,13 +3259,13 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="P26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S26" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3435,19 +3279,13 @@
       <c r="Y26">
         <v>0</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27">
+    </row>
+    <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3465,16 +3303,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M27">
         <v>17</v>
@@ -3483,13 +3321,13 @@
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S27" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3503,19 +3341,13 @@
       <c r="Y27">
         <v>0</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27">
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3533,16 +3365,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M28">
         <v>18</v>
@@ -3551,13 +3383,13 @@
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="P28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S28" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3571,19 +3403,13 @@
       <c r="Y28">
         <v>0</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27">
+    </row>
+    <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3601,19 +3427,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J29" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M29">
         <v>19</v>
@@ -3622,13 +3448,13 @@
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S29" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3642,19 +3468,13 @@
       <c r="Y29">
         <v>0</v>
       </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27">
+    </row>
+    <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3672,19 +3492,19 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I30" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J30" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M30">
         <v>19</v>
@@ -3693,13 +3513,13 @@
         <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S30" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3713,19 +3533,13 @@
       <c r="Y30">
         <v>0</v>
       </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
+    </row>
+    <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3743,19 +3557,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I31" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M31">
         <v>19</v>
@@ -3764,13 +3578,13 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S31" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3784,19 +3598,13 @@
       <c r="Y31">
         <v>0</v>
       </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
+    </row>
+    <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3814,16 +3622,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M32">
         <v>20</v>
@@ -3832,13 +3640,13 @@
         <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P32" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S32" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3852,19 +3660,13 @@
       <c r="Y32">
         <v>0</v>
       </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27">
+    </row>
+    <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3882,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J33" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M33">
         <v>20</v>
@@ -3900,13 +3702,13 @@
         <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P33" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S33" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3920,19 +3722,13 @@
       <c r="Y33">
         <v>0</v>
       </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27">
+    </row>
+    <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3950,16 +3746,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M34">
         <v>20</v>
@@ -3968,13 +3764,13 @@
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S34" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3988,19 +3784,13 @@
       <c r="Y34">
         <v>0</v>
       </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27">
+    </row>
+    <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -4018,16 +3808,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M35">
         <v>20</v>
@@ -4036,13 +3826,13 @@
         <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P35" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S35" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -4056,19 +3846,13 @@
       <c r="Y35">
         <v>0</v>
       </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27">
+    </row>
+    <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -4086,16 +3870,16 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J36" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M36">
         <v>21</v>
@@ -4104,13 +3888,13 @@
         <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="P36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S36" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4124,19 +3908,13 @@
       <c r="Y36">
         <v>0</v>
       </c>
-      <c r="Z36">
-        <v>0</v>
-      </c>
-      <c r="AA36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27">
+    </row>
+    <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -4154,16 +3932,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J37" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M37">
         <v>22</v>
@@ -4172,13 +3950,13 @@
         <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S37" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -4192,19 +3970,13 @@
       <c r="Y37">
         <v>0</v>
       </c>
-      <c r="Z37">
-        <v>0</v>
-      </c>
-      <c r="AA37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27">
+    </row>
+    <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -4222,19 +3994,19 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="I38" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J38" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M38">
         <v>22</v>
@@ -4243,13 +4015,13 @@
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S38" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4263,19 +4035,13 @@
       <c r="Y38">
         <v>0</v>
       </c>
-      <c r="Z38">
-        <v>0</v>
-      </c>
-      <c r="AA38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27">
+    </row>
+    <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4293,16 +4059,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M39">
         <v>22</v>
@@ -4311,13 +4077,13 @@
         <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S39" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4331,19 +4097,13 @@
       <c r="Y39">
         <v>0</v>
       </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27">
+    </row>
+    <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4361,16 +4121,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M40">
         <v>22</v>
@@ -4379,13 +4139,13 @@
         <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S40" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4399,19 +4159,13 @@
       <c r="Y40">
         <v>0</v>
       </c>
-      <c r="Z40">
-        <v>0</v>
-      </c>
-      <c r="AA40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27">
+    </row>
+    <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4429,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J41" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M41">
         <v>22</v>
@@ -4447,13 +4201,13 @@
         <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="P41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S41" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4467,19 +4221,13 @@
       <c r="Y41">
         <v>0</v>
       </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27">
+    </row>
+    <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4497,16 +4245,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J42" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M42">
         <v>23</v>
@@ -4515,13 +4263,13 @@
         <v>38</v>
       </c>
       <c r="O42" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S42" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4535,19 +4283,13 @@
       <c r="Y42">
         <v>0</v>
       </c>
-      <c r="Z42">
-        <v>0</v>
-      </c>
-      <c r="AA42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27">
+    </row>
+    <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B43" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4565,16 +4307,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M43">
         <v>23</v>
@@ -4583,13 +4325,13 @@
         <v>38</v>
       </c>
       <c r="O43" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S43" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4603,19 +4345,13 @@
       <c r="Y43">
         <v>0</v>
       </c>
-      <c r="Z43">
-        <v>0</v>
-      </c>
-      <c r="AA43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27">
+    </row>
+    <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4633,16 +4369,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J44" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M44">
         <v>23</v>
@@ -4651,13 +4387,13 @@
         <v>38</v>
       </c>
       <c r="O44" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S44" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4671,19 +4407,13 @@
       <c r="Y44">
         <v>0</v>
       </c>
-      <c r="Z44">
-        <v>0</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27">
+    </row>
+    <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4701,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J45" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M45">
         <v>23</v>
@@ -4719,13 +4449,13 @@
         <v>38</v>
       </c>
       <c r="O45" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S45" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4739,19 +4469,13 @@
       <c r="Y45">
         <v>0</v>
       </c>
-      <c r="Z45">
-        <v>0</v>
-      </c>
-      <c r="AA45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27">
+    </row>
+    <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4769,16 +4493,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M46">
         <v>23</v>
@@ -4787,13 +4511,13 @@
         <v>38</v>
       </c>
       <c r="O46" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S46" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4807,19 +4531,13 @@
       <c r="Y46">
         <v>0</v>
       </c>
-      <c r="Z46">
-        <v>0</v>
-      </c>
-      <c r="AA46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27">
+    </row>
+    <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4837,16 +4555,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J47" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M47">
         <v>23</v>
@@ -4855,13 +4573,13 @@
         <v>38</v>
       </c>
       <c r="O47" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S47" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4875,19 +4593,13 @@
       <c r="Y47">
         <v>0</v>
       </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27">
+    </row>
+    <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4905,16 +4617,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M48">
         <v>23</v>
@@ -4923,13 +4635,13 @@
         <v>38</v>
       </c>
       <c r="O48" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S48" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4943,19 +4655,13 @@
       <c r="Y48">
         <v>0</v>
       </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27">
+    </row>
+    <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4973,16 +4679,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M49">
         <v>23</v>
@@ -4991,13 +4697,13 @@
         <v>38</v>
       </c>
       <c r="O49" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S49" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -5011,19 +4717,13 @@
       <c r="Y49">
         <v>0</v>
       </c>
-      <c r="Z49">
-        <v>0</v>
-      </c>
-      <c r="AA49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27">
+    </row>
+    <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -5041,16 +4741,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M50">
         <v>23</v>
@@ -5059,13 +4759,13 @@
         <v>38</v>
       </c>
       <c r="O50" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S50" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -5079,19 +4779,13 @@
       <c r="Y50">
         <v>0</v>
       </c>
-      <c r="Z50">
-        <v>0</v>
-      </c>
-      <c r="AA50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27">
+    </row>
+    <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -5109,16 +4803,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J51" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M51">
         <v>23</v>
@@ -5127,13 +4821,13 @@
         <v>38</v>
       </c>
       <c r="O51" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S51" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -5147,19 +4841,13 @@
       <c r="Y51">
         <v>0</v>
       </c>
-      <c r="Z51">
-        <v>0</v>
-      </c>
-      <c r="AA51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27">
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -5177,16 +4865,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J52" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M52">
         <v>23</v>
@@ -5195,13 +4883,13 @@
         <v>38</v>
       </c>
       <c r="O52" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S52" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -5215,19 +4903,13 @@
       <c r="Y52">
         <v>0</v>
       </c>
-      <c r="Z52">
-        <v>0</v>
-      </c>
-      <c r="AA52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27">
+    </row>
+    <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -5245,16 +4927,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J53" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M53">
         <v>23</v>
@@ -5263,13 +4945,13 @@
         <v>38</v>
       </c>
       <c r="O53" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -5283,19 +4965,13 @@
       <c r="Y53">
         <v>0</v>
       </c>
-      <c r="Z53">
-        <v>0</v>
-      </c>
-      <c r="AA53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27">
+    </row>
+    <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -5313,16 +4989,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J54" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M54">
         <v>23</v>
@@ -5331,13 +5007,13 @@
         <v>38</v>
       </c>
       <c r="O54" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S54" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5351,19 +5027,13 @@
       <c r="Y54">
         <v>0</v>
       </c>
-      <c r="Z54">
-        <v>0</v>
-      </c>
-      <c r="AA54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27">
+    </row>
+    <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5381,16 +5051,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J55" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M55">
         <v>23</v>
@@ -5399,13 +5069,13 @@
         <v>38</v>
       </c>
       <c r="O55" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S55" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5419,19 +5089,13 @@
       <c r="Y55">
         <v>0</v>
       </c>
-      <c r="Z55">
-        <v>0</v>
-      </c>
-      <c r="AA55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27">
+    </row>
+    <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5449,19 +5113,19 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I56" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J56" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M56">
         <v>24</v>
@@ -5470,13 +5134,13 @@
         <v>51</v>
       </c>
       <c r="O56" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P56" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S56" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5490,19 +5154,13 @@
       <c r="Y56">
         <v>0</v>
       </c>
-      <c r="Z56">
-        <v>0</v>
-      </c>
-      <c r="AA56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27">
+    </row>
+    <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B57" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5520,19 +5178,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="I57" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J57" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M57">
         <v>24</v>
@@ -5541,13 +5199,13 @@
         <v>51</v>
       </c>
       <c r="O57" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5561,19 +5219,13 @@
       <c r="Y57">
         <v>0</v>
       </c>
-      <c r="Z57">
-        <v>0</v>
-      </c>
-      <c r="AA57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27">
+    </row>
+    <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5591,16 +5243,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J58" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -5609,13 +5261,13 @@
         <v>51</v>
       </c>
       <c r="O58" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S58" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5629,19 +5281,13 @@
       <c r="Y58">
         <v>0</v>
       </c>
-      <c r="Z58">
-        <v>0</v>
-      </c>
-      <c r="AA58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27">
+    </row>
+    <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5659,16 +5305,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J59" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M59">
         <v>24</v>
@@ -5677,13 +5323,13 @@
         <v>51</v>
       </c>
       <c r="O59" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5697,19 +5343,13 @@
       <c r="Y59">
         <v>0</v>
       </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27">
+    </row>
+    <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B60" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5727,16 +5367,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J60" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M60">
         <v>24</v>
@@ -5745,13 +5385,13 @@
         <v>51</v>
       </c>
       <c r="O60" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="P60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S60" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5765,19 +5405,13 @@
       <c r="Y60">
         <v>0</v>
       </c>
-      <c r="Z60">
-        <v>0</v>
-      </c>
-      <c r="AA60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27">
+    </row>
+    <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5795,16 +5429,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J61" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M61">
         <v>26</v>
@@ -5813,13 +5447,13 @@
         <v>55</v>
       </c>
       <c r="O61" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S61" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5833,19 +5467,13 @@
       <c r="Y61">
         <v>0</v>
       </c>
-      <c r="Z61">
-        <v>0</v>
-      </c>
-      <c r="AA61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27">
+    </row>
+    <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B62" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5863,16 +5491,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J62" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M62">
         <v>26</v>
@@ -5881,13 +5509,13 @@
         <v>55</v>
       </c>
       <c r="O62" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="P62" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S62" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5901,19 +5529,13 @@
       <c r="Y62">
         <v>0</v>
       </c>
-      <c r="Z62">
-        <v>0</v>
-      </c>
-      <c r="AA62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27">
+    </row>
+    <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5931,16 +5553,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J63" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M63">
         <v>27</v>
@@ -5949,13 +5571,13 @@
         <v>56</v>
       </c>
       <c r="O63" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="P63" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S63" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5969,19 +5591,13 @@
       <c r="Y63">
         <v>0</v>
       </c>
-      <c r="Z63">
-        <v>0</v>
-      </c>
-      <c r="AA63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27">
+    </row>
+    <row r="64" spans="1:25">
       <c r="A64" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5999,16 +5615,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J64" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M64">
         <v>28</v>
@@ -6017,13 +5633,13 @@
         <v>57</v>
       </c>
       <c r="O64" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P64" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S64" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -6037,19 +5653,13 @@
       <c r="Y64">
         <v>0</v>
       </c>
-      <c r="Z64">
-        <v>0</v>
-      </c>
-      <c r="AA64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27">
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -6067,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J65" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M65">
         <v>28</v>
@@ -6085,13 +5695,13 @@
         <v>57</v>
       </c>
       <c r="O65" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P65" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S65" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -6105,19 +5715,13 @@
       <c r="Y65">
         <v>0</v>
       </c>
-      <c r="Z65">
-        <v>0</v>
-      </c>
-      <c r="AA65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27">
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B66" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -6135,16 +5739,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J66" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M66">
         <v>28</v>
@@ -6153,13 +5757,13 @@
         <v>57</v>
       </c>
       <c r="O66" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P66" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S66" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -6173,19 +5777,13 @@
       <c r="Y66">
         <v>0</v>
       </c>
-      <c r="Z66">
-        <v>0</v>
-      </c>
-      <c r="AA66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27">
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B67" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -6203,16 +5801,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J67" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M67">
         <v>28</v>
@@ -6221,13 +5819,13 @@
         <v>57</v>
       </c>
       <c r="O67" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="P67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S67" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -6241,19 +5839,13 @@
       <c r="Y67">
         <v>0</v>
       </c>
-      <c r="Z67">
-        <v>0</v>
-      </c>
-      <c r="AA67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27">
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B68" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -6271,16 +5863,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J68" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M68">
         <v>29</v>
@@ -6289,13 +5881,13 @@
         <v>58</v>
       </c>
       <c r="O68" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S68" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -6309,19 +5901,13 @@
       <c r="Y68">
         <v>0</v>
       </c>
-      <c r="Z68">
-        <v>0</v>
-      </c>
-      <c r="AA68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27">
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B69" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -6339,16 +5925,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M69">
         <v>29</v>
@@ -6357,13 +5943,13 @@
         <v>58</v>
       </c>
       <c r="O69" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P69" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S69" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -6377,19 +5963,13 @@
       <c r="Y69">
         <v>0</v>
       </c>
-      <c r="Z69">
-        <v>0</v>
-      </c>
-      <c r="AA69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27">
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -6407,16 +5987,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J70" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M70">
         <v>30</v>
@@ -6425,13 +6005,13 @@
         <v>59</v>
       </c>
       <c r="O70" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S70" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6445,19 +6025,13 @@
       <c r="Y70">
         <v>0</v>
       </c>
-      <c r="Z70">
-        <v>0</v>
-      </c>
-      <c r="AA70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27">
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B71" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6475,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M71">
         <v>30</v>
@@ -6493,13 +6067,13 @@
         <v>59</v>
       </c>
       <c r="O71" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S71" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -6513,19 +6087,13 @@
       <c r="Y71">
         <v>0</v>
       </c>
-      <c r="Z71">
-        <v>0</v>
-      </c>
-      <c r="AA71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27">
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B72" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6543,16 +6111,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J72" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M72">
         <v>30</v>
@@ -6561,13 +6129,13 @@
         <v>59</v>
       </c>
       <c r="O72" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S72" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -6581,19 +6149,13 @@
       <c r="Y72">
         <v>0</v>
       </c>
-      <c r="Z72">
-        <v>0</v>
-      </c>
-      <c r="AA72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27">
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B73" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6611,16 +6173,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M73">
         <v>30</v>
@@ -6629,13 +6191,13 @@
         <v>59</v>
       </c>
       <c r="O73" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S73" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -6649,19 +6211,13 @@
       <c r="Y73">
         <v>0</v>
       </c>
-      <c r="Z73">
-        <v>0</v>
-      </c>
-      <c r="AA73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27">
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6679,16 +6235,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M74">
         <v>30</v>
@@ -6697,13 +6253,13 @@
         <v>59</v>
       </c>
       <c r="O74" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="P74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S74" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6717,19 +6273,13 @@
       <c r="Y74">
         <v>0</v>
       </c>
-      <c r="Z74">
-        <v>0</v>
-      </c>
-      <c r="AA74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27">
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6747,16 +6297,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J75" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M75">
         <v>31</v>
@@ -6765,13 +6315,13 @@
         <v>60</v>
       </c>
       <c r="O75" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P75" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S75" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -6785,19 +6335,13 @@
       <c r="Y75">
         <v>0</v>
       </c>
-      <c r="Z75">
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27">
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B76" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6815,16 +6359,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J76" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M76">
         <v>31</v>
@@ -6833,13 +6377,13 @@
         <v>60</v>
       </c>
       <c r="O76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P76" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S76" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -6853,19 +6397,13 @@
       <c r="Y76">
         <v>0</v>
       </c>
-      <c r="Z76">
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27">
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6883,16 +6421,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J77" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M77">
         <v>31</v>
@@ -6901,13 +6439,13 @@
         <v>60</v>
       </c>
       <c r="O77" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="P77" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S77" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -6921,19 +6459,13 @@
       <c r="Y77">
         <v>0</v>
       </c>
-      <c r="Z77">
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27">
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B78" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6951,16 +6483,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J78" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M78">
         <v>32</v>
@@ -6969,13 +6501,13 @@
         <v>61</v>
       </c>
       <c r="O78" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P78" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S78" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -6989,19 +6521,13 @@
       <c r="Y78">
         <v>0</v>
       </c>
-      <c r="Z78">
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27">
+    </row>
+    <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B79" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -7019,16 +6545,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M79">
         <v>33</v>
@@ -7037,13 +6563,13 @@
         <v>63</v>
       </c>
       <c r="O79" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P79" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S79" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -7057,19 +6583,13 @@
       <c r="Y79">
         <v>0</v>
       </c>
-      <c r="Z79">
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27">
+    </row>
+    <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -7087,16 +6607,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J80" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M80">
         <v>33</v>
@@ -7105,13 +6625,13 @@
         <v>63</v>
       </c>
       <c r="O80" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P80" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S80" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -7125,19 +6645,13 @@
       <c r="Y80">
         <v>0</v>
       </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27">
+    </row>
+    <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -7155,16 +6669,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J81" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M81">
         <v>33</v>
@@ -7173,13 +6687,13 @@
         <v>63</v>
       </c>
       <c r="O81" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P81" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S81" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -7193,19 +6707,13 @@
       <c r="Y81">
         <v>0</v>
       </c>
-      <c r="Z81">
-        <v>0</v>
-      </c>
-      <c r="AA81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27">
+    </row>
+    <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B82" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -7223,16 +6731,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J82" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M82">
         <v>33</v>
@@ -7241,13 +6749,13 @@
         <v>63</v>
       </c>
       <c r="O82" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P82" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S82" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -7261,19 +6769,13 @@
       <c r="Y82">
         <v>0</v>
       </c>
-      <c r="Z82">
-        <v>0</v>
-      </c>
-      <c r="AA82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27">
+    </row>
+    <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B83" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -7291,16 +6793,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J83" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M83">
         <v>33</v>
@@ -7309,13 +6811,13 @@
         <v>63</v>
       </c>
       <c r="O83" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="P83" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S83" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -7329,19 +6831,13 @@
       <c r="Y83">
         <v>0</v>
       </c>
-      <c r="Z83">
-        <v>0</v>
-      </c>
-      <c r="AA83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27">
+    </row>
+    <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B84" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -7359,16 +6855,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J84" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M84">
         <v>34</v>
@@ -7377,13 +6873,13 @@
         <v>64</v>
       </c>
       <c r="O84" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P84" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S84" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -7397,19 +6893,13 @@
       <c r="Y84">
         <v>0</v>
       </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27">
+    </row>
+    <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B85" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -7427,16 +6917,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J85" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K85">
         <v>84</v>
       </c>
       <c r="L85" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M85">
         <v>34</v>
@@ -7445,13 +6935,13 @@
         <v>64</v>
       </c>
       <c r="O85" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="P85" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S85" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -7465,19 +6955,13 @@
       <c r="Y85">
         <v>0</v>
       </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27">
+    </row>
+    <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B86" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -7495,19 +6979,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I86" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K86">
         <v>85</v>
       </c>
       <c r="L86" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M86">
         <v>36</v>
@@ -7516,13 +7000,13 @@
         <v>77</v>
       </c>
       <c r="O86" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P86" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S86" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -7536,19 +7020,13 @@
       <c r="Y86">
         <v>0</v>
       </c>
-      <c r="Z86">
-        <v>0</v>
-      </c>
-      <c r="AA86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27">
+    </row>
+    <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7566,16 +7044,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J87" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K87">
         <v>86</v>
       </c>
       <c r="L87" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M87">
         <v>36</v>
@@ -7584,13 +7062,13 @@
         <v>77</v>
       </c>
       <c r="O87" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="P87" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S87" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -7604,19 +7082,13 @@
       <c r="Y87">
         <v>0</v>
       </c>
-      <c r="Z87">
-        <v>0</v>
-      </c>
-      <c r="AA87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27">
+    </row>
+    <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7634,16 +7106,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J88" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K88">
         <v>87</v>
       </c>
       <c r="L88" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M88">
         <v>37</v>
@@ -7652,13 +7124,13 @@
         <v>78</v>
       </c>
       <c r="O88" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P88" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S88" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -7672,19 +7144,13 @@
       <c r="Y88">
         <v>0</v>
       </c>
-      <c r="Z88">
-        <v>0</v>
-      </c>
-      <c r="AA88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27">
+    </row>
+    <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7702,16 +7168,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J89" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K89">
         <v>88</v>
       </c>
       <c r="L89" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M89">
         <v>37</v>
@@ -7720,13 +7186,13 @@
         <v>78</v>
       </c>
       <c r="O89" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P89" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S89" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -7740,19 +7206,13 @@
       <c r="Y89">
         <v>0</v>
       </c>
-      <c r="Z89">
-        <v>0</v>
-      </c>
-      <c r="AA89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27">
+    </row>
+    <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7770,16 +7230,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J90" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K90">
         <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M90">
         <v>37</v>
@@ -7788,13 +7248,13 @@
         <v>78</v>
       </c>
       <c r="O90" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P90" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S90" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -7808,19 +7268,13 @@
       <c r="Y90">
         <v>0</v>
       </c>
-      <c r="Z90">
-        <v>0</v>
-      </c>
-      <c r="AA90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27">
+    </row>
+    <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7838,16 +7292,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J91" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K91">
         <v>90</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M91">
         <v>38</v>
@@ -7856,13 +7310,13 @@
         <v>80</v>
       </c>
       <c r="O91" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="P91" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S91" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -7876,19 +7330,13 @@
       <c r="Y91">
         <v>0</v>
       </c>
-      <c r="Z91">
-        <v>0</v>
-      </c>
-      <c r="AA91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:27">
+    </row>
+    <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7906,19 +7354,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K92">
         <v>91</v>
       </c>
       <c r="L92" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M92">
         <v>39</v>
@@ -7927,13 +7375,13 @@
         <v>81</v>
       </c>
       <c r="O92" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P92" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S92" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -7947,19 +7395,13 @@
       <c r="Y92">
         <v>0</v>
       </c>
-      <c r="Z92">
-        <v>0</v>
-      </c>
-      <c r="AA92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:27">
+    </row>
+    <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7977,19 +7419,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I93" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J93" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K93">
         <v>92</v>
       </c>
       <c r="L93" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M93">
         <v>39</v>
@@ -7998,13 +7440,13 @@
         <v>81</v>
       </c>
       <c r="O93" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P93" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S93" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -8018,19 +7460,13 @@
       <c r="Y93">
         <v>0</v>
       </c>
-      <c r="Z93">
-        <v>0</v>
-      </c>
-      <c r="AA93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:27">
+    </row>
+    <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -8048,19 +7484,19 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I94" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J94" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K94">
         <v>93</v>
       </c>
       <c r="L94" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M94">
         <v>39</v>
@@ -8069,13 +7505,13 @@
         <v>81</v>
       </c>
       <c r="O94" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P94" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S94" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -8089,19 +7525,13 @@
       <c r="Y94">
         <v>0</v>
       </c>
-      <c r="Z94">
-        <v>0</v>
-      </c>
-      <c r="AA94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:27">
+    </row>
+    <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -8119,19 +7549,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J95" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K95">
         <v>94</v>
       </c>
       <c r="L95" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M95">
         <v>39</v>
@@ -8140,13 +7570,13 @@
         <v>81</v>
       </c>
       <c r="O95" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P95" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S95" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -8160,19 +7590,13 @@
       <c r="Y95">
         <v>0</v>
       </c>
-      <c r="Z95">
-        <v>0</v>
-      </c>
-      <c r="AA95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:27">
+    </row>
+    <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -8190,19 +7614,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I96" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J96" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K96">
         <v>95</v>
       </c>
       <c r="L96" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M96">
         <v>39</v>
@@ -8211,13 +7635,13 @@
         <v>81</v>
       </c>
       <c r="O96" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P96" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S96" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -8231,19 +7655,13 @@
       <c r="Y96">
         <v>0</v>
       </c>
-      <c r="Z96">
-        <v>0</v>
-      </c>
-      <c r="AA96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:27">
+    </row>
+    <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -8261,19 +7679,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J97" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K97">
         <v>96</v>
       </c>
       <c r="L97" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M97">
         <v>39</v>
@@ -8282,13 +7700,13 @@
         <v>81</v>
       </c>
       <c r="O97" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P97" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S97" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -8302,19 +7720,13 @@
       <c r="Y97">
         <v>0</v>
       </c>
-      <c r="Z97">
-        <v>0</v>
-      </c>
-      <c r="AA97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:27">
+    </row>
+    <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B98" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -8332,19 +7744,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J98" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K98">
         <v>97</v>
       </c>
       <c r="L98" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M98">
         <v>39</v>
@@ -8353,13 +7765,13 @@
         <v>81</v>
       </c>
       <c r="O98" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P98" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S98" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -8373,19 +7785,13 @@
       <c r="Y98">
         <v>0</v>
       </c>
-      <c r="Z98">
-        <v>0</v>
-      </c>
-      <c r="AA98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:27">
+    </row>
+    <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8403,16 +7809,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J99" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K99">
         <v>98</v>
       </c>
       <c r="L99" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M99">
         <v>39</v>
@@ -8421,13 +7827,13 @@
         <v>81</v>
       </c>
       <c r="O99" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P99" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S99" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -8441,19 +7847,13 @@
       <c r="Y99">
         <v>0</v>
       </c>
-      <c r="Z99">
-        <v>0</v>
-      </c>
-      <c r="AA99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:27">
+    </row>
+    <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8471,16 +7871,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K100">
         <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M100">
         <v>39</v>
@@ -8489,13 +7889,13 @@
         <v>81</v>
       </c>
       <c r="O100" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P100" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S100" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -8509,19 +7909,13 @@
       <c r="Y100">
         <v>0</v>
       </c>
-      <c r="Z100">
-        <v>0</v>
-      </c>
-      <c r="AA100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:27">
+    </row>
+    <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B101" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8539,16 +7933,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J101" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K101">
         <v>100</v>
       </c>
       <c r="L101" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M101">
         <v>39</v>
@@ -8557,13 +7951,13 @@
         <v>81</v>
       </c>
       <c r="O101" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S101" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -8577,19 +7971,13 @@
       <c r="Y101">
         <v>0</v>
       </c>
-      <c r="Z101">
-        <v>0</v>
-      </c>
-      <c r="AA101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:27">
+    </row>
+    <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B102" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -8607,16 +7995,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J102" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K102">
         <v>101</v>
       </c>
       <c r="L102" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M102">
         <v>40</v>
@@ -8625,13 +8013,13 @@
         <v>82</v>
       </c>
       <c r="O102" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P102" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S102" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -8645,19 +8033,13 @@
       <c r="Y102">
         <v>0</v>
       </c>
-      <c r="Z102">
-        <v>0</v>
-      </c>
-      <c r="AA102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:27">
+    </row>
+    <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -8675,16 +8057,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J103" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K103">
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M103">
         <v>40</v>
@@ -8693,13 +8075,13 @@
         <v>82</v>
       </c>
       <c r="O103" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="P103" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S103" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -8713,19 +8095,13 @@
       <c r="Y103">
         <v>0</v>
       </c>
-      <c r="Z103">
-        <v>0</v>
-      </c>
-      <c r="AA103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:27">
+    </row>
+    <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B104" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8743,16 +8119,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J104" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K104">
         <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M104">
         <v>42</v>
@@ -8761,13 +8137,13 @@
         <v>84</v>
       </c>
       <c r="O104" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="P104" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S104" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -8781,19 +8157,13 @@
       <c r="Y104">
         <v>0</v>
       </c>
-      <c r="Z104">
-        <v>0</v>
-      </c>
-      <c r="AA104">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="1:27">
+    </row>
+    <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8811,16 +8181,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J105" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K105">
         <v>104</v>
       </c>
       <c r="L105" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M105">
         <v>44</v>
@@ -8829,13 +8199,13 @@
         <v>87</v>
       </c>
       <c r="O105" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P105" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S105" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V105">
         <v>0</v>
@@ -8849,19 +8219,13 @@
       <c r="Y105">
         <v>0</v>
       </c>
-      <c r="Z105">
-        <v>0</v>
-      </c>
-      <c r="AA105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:27">
+    </row>
+    <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8879,16 +8243,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J106" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K106">
         <v>105</v>
       </c>
       <c r="L106" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M106">
         <v>44</v>
@@ -8897,13 +8261,13 @@
         <v>87</v>
       </c>
       <c r="O106" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P106" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S106" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -8917,19 +8281,13 @@
       <c r="Y106">
         <v>0</v>
       </c>
-      <c r="Z106">
-        <v>0</v>
-      </c>
-      <c r="AA106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="1:27">
+    </row>
+    <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8947,16 +8305,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J107" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K107">
         <v>106</v>
       </c>
       <c r="L107" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M107">
         <v>44</v>
@@ -8965,13 +8323,13 @@
         <v>87</v>
       </c>
       <c r="O107" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P107" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S107" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -8985,19 +8343,13 @@
       <c r="Y107">
         <v>0</v>
       </c>
-      <c r="Z107">
-        <v>0</v>
-      </c>
-      <c r="AA107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:27">
+    </row>
+    <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B108" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9015,16 +8367,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J108" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K108">
         <v>107</v>
       </c>
       <c r="L108" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M108">
         <v>44</v>
@@ -9033,13 +8385,13 @@
         <v>87</v>
       </c>
       <c r="O108" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P108" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S108" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -9053,19 +8405,13 @@
       <c r="Y108">
         <v>0</v>
       </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:27">
+    </row>
+    <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9083,16 +8429,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J109" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K109">
         <v>108</v>
       </c>
       <c r="L109" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M109">
         <v>45</v>
@@ -9101,13 +8447,13 @@
         <v>88</v>
       </c>
       <c r="O109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P109" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S109" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -9121,19 +8467,13 @@
       <c r="Y109">
         <v>0</v>
       </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:27">
+    </row>
+    <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9151,16 +8491,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J110" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K110">
         <v>109</v>
       </c>
       <c r="L110" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M110">
         <v>45</v>
@@ -9169,13 +8509,13 @@
         <v>88</v>
       </c>
       <c r="O110" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P110" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S110" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -9189,19 +8529,13 @@
       <c r="Y110">
         <v>0</v>
       </c>
-      <c r="Z110">
-        <v>0</v>
-      </c>
-      <c r="AA110">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="1:27">
+    </row>
+    <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B111" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9219,16 +8553,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J111" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K111">
         <v>110</v>
       </c>
       <c r="L111" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M111">
         <v>45</v>
@@ -9237,13 +8571,13 @@
         <v>88</v>
       </c>
       <c r="O111" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P111" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S111" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -9257,19 +8591,13 @@
       <c r="Y111">
         <v>0</v>
       </c>
-      <c r="Z111">
-        <v>0</v>
-      </c>
-      <c r="AA111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:27">
+    </row>
+    <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B112" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9287,16 +8615,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J112" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K112">
         <v>111</v>
       </c>
       <c r="L112" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M112">
         <v>45</v>
@@ -9305,13 +8633,13 @@
         <v>88</v>
       </c>
       <c r="O112" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P112" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S112" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -9325,19 +8653,13 @@
       <c r="Y112">
         <v>0</v>
       </c>
-      <c r="Z112">
-        <v>0</v>
-      </c>
-      <c r="AA112">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="1:27">
+    </row>
+    <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9355,16 +8677,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J113" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K113">
         <v>112</v>
       </c>
       <c r="L113" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M113">
         <v>45</v>
@@ -9373,13 +8695,13 @@
         <v>88</v>
       </c>
       <c r="O113" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P113" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S113" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -9393,19 +8715,13 @@
       <c r="Y113">
         <v>0</v>
       </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+    </row>
+    <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -9423,16 +8739,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J114" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K114">
         <v>113</v>
       </c>
       <c r="L114" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M114">
         <v>45</v>
@@ -9441,13 +8757,13 @@
         <v>88</v>
       </c>
       <c r="O114" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P114" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S114" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -9461,19 +8777,13 @@
       <c r="Y114">
         <v>0</v>
       </c>
-      <c r="Z114">
-        <v>0</v>
-      </c>
-      <c r="AA114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
+    </row>
+    <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B115" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9491,16 +8801,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J115" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K115">
         <v>114</v>
       </c>
       <c r="L115" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M115">
         <v>46</v>
@@ -9509,13 +8819,13 @@
         <v>90</v>
       </c>
       <c r="O115" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P115" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S115" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -9529,19 +8839,13 @@
       <c r="Y115">
         <v>0</v>
       </c>
-      <c r="Z115">
-        <v>0</v>
-      </c>
-      <c r="AA115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
+    </row>
+    <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B116" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9559,16 +8863,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J116" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K116">
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M116">
         <v>46</v>
@@ -9577,13 +8881,13 @@
         <v>90</v>
       </c>
       <c r="O116" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P116" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S116" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -9597,19 +8901,13 @@
       <c r="Y116">
         <v>0</v>
       </c>
-      <c r="Z116">
-        <v>0</v>
-      </c>
-      <c r="AA116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
+    </row>
+    <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9627,16 +8925,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J117" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K117">
         <v>116</v>
       </c>
       <c r="L117" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M117">
         <v>46</v>
@@ -9645,13 +8943,13 @@
         <v>90</v>
       </c>
       <c r="O117" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P117" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S117" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -9665,19 +8963,13 @@
       <c r="Y117">
         <v>0</v>
       </c>
-      <c r="Z117">
-        <v>0</v>
-      </c>
-      <c r="AA117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:27">
+    </row>
+    <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9695,16 +8987,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J118" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K118">
         <v>117</v>
       </c>
       <c r="L118" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M118">
         <v>46</v>
@@ -9713,13 +9005,13 @@
         <v>90</v>
       </c>
       <c r="O118" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="P118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S118" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -9733,19 +9025,13 @@
       <c r="Y118">
         <v>0</v>
       </c>
-      <c r="Z118">
-        <v>0</v>
-      </c>
-      <c r="AA118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:27">
+    </row>
+    <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9763,16 +9049,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J119" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K119">
         <v>118</v>
       </c>
       <c r="L119" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M119">
         <v>47</v>
@@ -9781,13 +9067,13 @@
         <v>91</v>
       </c>
       <c r="O119" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="P119" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S119" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -9801,19 +9087,13 @@
       <c r="Y119">
         <v>0</v>
       </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:27">
+    </row>
+    <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9831,19 +9111,19 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="I120" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J120" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K120">
         <v>119</v>
       </c>
       <c r="L120" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M120">
         <v>49</v>
@@ -9852,13 +9132,13 @@
         <v>93</v>
       </c>
       <c r="O120" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P120" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S120" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -9872,19 +9152,13 @@
       <c r="Y120">
         <v>0</v>
       </c>
-      <c r="Z120">
-        <v>0</v>
-      </c>
-      <c r="AA120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:27">
+    </row>
+    <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9902,19 +9176,19 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="I121" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J121" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K121">
         <v>120</v>
       </c>
       <c r="L121" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M121">
         <v>49</v>
@@ -9923,13 +9197,13 @@
         <v>93</v>
       </c>
       <c r="O121" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P121" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S121" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -9943,19 +9217,13 @@
       <c r="Y121">
         <v>0</v>
       </c>
-      <c r="Z121">
-        <v>0</v>
-      </c>
-      <c r="AA121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:27">
+    </row>
+    <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B122" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9973,19 +9241,19 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I122" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J122" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K122">
         <v>121</v>
       </c>
       <c r="L122" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M122">
         <v>50</v>
@@ -9994,13 +9262,13 @@
         <v>94</v>
       </c>
       <c r="O122" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P122" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S122" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -10014,19 +9282,13 @@
       <c r="Y122">
         <v>0</v>
       </c>
-      <c r="Z122">
-        <v>0</v>
-      </c>
-      <c r="AA122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:27">
+    </row>
+    <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -10044,19 +9306,19 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I123" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J123" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K123">
         <v>122</v>
       </c>
       <c r="L123" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M123">
         <v>50</v>
@@ -10065,13 +9327,13 @@
         <v>94</v>
       </c>
       <c r="O123" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P123" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S123" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -10085,19 +9347,13 @@
       <c r="Y123">
         <v>0</v>
       </c>
-      <c r="Z123">
-        <v>0</v>
-      </c>
-      <c r="AA123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:27">
+    </row>
+    <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -10115,19 +9371,19 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I124" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J124" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K124">
         <v>123</v>
       </c>
       <c r="L124" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M124">
         <v>50</v>
@@ -10136,13 +9392,13 @@
         <v>94</v>
       </c>
       <c r="O124" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P124" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S124" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V124">
         <v>0</v>
@@ -10156,19 +9412,13 @@
       <c r="Y124">
         <v>0</v>
       </c>
-      <c r="Z124">
-        <v>0</v>
-      </c>
-      <c r="AA124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:27">
+    </row>
+    <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B125" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -10186,16 +9436,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J125" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K125">
         <v>124</v>
       </c>
       <c r="L125" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M125">
         <v>50</v>
@@ -10204,13 +9454,13 @@
         <v>94</v>
       </c>
       <c r="O125" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="P125" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S125" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -10224,19 +9474,13 @@
       <c r="Y125">
         <v>0</v>
       </c>
-      <c r="Z125">
-        <v>0</v>
-      </c>
-      <c r="AA125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:27">
+    </row>
+    <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B126" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10254,16 +9498,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J126" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K126">
         <v>125</v>
       </c>
       <c r="L126" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M126">
         <v>51</v>
@@ -10272,13 +9516,13 @@
         <v>95</v>
       </c>
       <c r="O126" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P126" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S126" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V126">
         <v>0</v>
@@ -10292,19 +9536,13 @@
       <c r="Y126">
         <v>0</v>
       </c>
-      <c r="Z126">
-        <v>0</v>
-      </c>
-      <c r="AA126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:27">
+    </row>
+    <row r="127" spans="1:25">
       <c r="A127" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10322,16 +9560,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J127" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K127">
         <v>126</v>
       </c>
       <c r="L127" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M127">
         <v>51</v>
@@ -10340,13 +9578,13 @@
         <v>95</v>
       </c>
       <c r="O127" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="P127" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S127" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -10360,19 +9598,13 @@
       <c r="Y127">
         <v>0</v>
       </c>
-      <c r="Z127">
-        <v>0</v>
-      </c>
-      <c r="AA127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:27">
+    </row>
+    <row r="128" spans="1:25">
       <c r="A128" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B128" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10390,16 +9622,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J128" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K128">
         <v>127</v>
       </c>
       <c r="L128" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M128">
         <v>52</v>
@@ -10408,13 +9640,13 @@
         <v>96</v>
       </c>
       <c r="O128" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="P128" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="S128" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V128">
         <v>0</v>
@@ -10428,19 +9660,13 @@
       <c r="Y128">
         <v>0</v>
       </c>
-      <c r="Z128">
-        <v>0</v>
-      </c>
-      <c r="AA128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:27">
+    </row>
+    <row r="129" spans="1:25">
       <c r="A129" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B129" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -10458,16 +9684,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J129" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K129">
         <v>128</v>
       </c>
       <c r="L129" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M129">
         <v>53</v>
@@ -10476,13 +9702,13 @@
         <v>98</v>
       </c>
       <c r="O129" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P129" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S129" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -10496,19 +9722,13 @@
       <c r="Y129">
         <v>0</v>
       </c>
-      <c r="Z129">
-        <v>0</v>
-      </c>
-      <c r="AA129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:27">
+    </row>
+    <row r="130" spans="1:25">
       <c r="A130" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B130" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -10526,16 +9746,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J130" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K130">
         <v>129</v>
       </c>
       <c r="L130" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M130">
         <v>53</v>
@@ -10544,13 +9764,13 @@
         <v>98</v>
       </c>
       <c r="O130" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="P130" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S130" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -10564,19 +9784,13 @@
       <c r="Y130">
         <v>0</v>
       </c>
-      <c r="Z130">
-        <v>0</v>
-      </c>
-      <c r="AA130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:27">
+    </row>
+    <row r="131" spans="1:25">
       <c r="A131" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B131" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10594,16 +9808,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J131" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K131">
         <v>130</v>
       </c>
       <c r="L131" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M131">
         <v>54</v>
@@ -10612,13 +9826,13 @@
         <v>99</v>
       </c>
       <c r="O131" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P131" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S131" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -10632,19 +9846,13 @@
       <c r="Y131">
         <v>0</v>
       </c>
-      <c r="Z131">
-        <v>0</v>
-      </c>
-      <c r="AA131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:27">
+    </row>
+    <row r="132" spans="1:25">
       <c r="A132" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10662,16 +9870,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J132" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K132">
         <v>131</v>
       </c>
       <c r="L132" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M132">
         <v>54</v>
@@ -10680,13 +9888,13 @@
         <v>99</v>
       </c>
       <c r="O132" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P132" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S132" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -10700,19 +9908,13 @@
       <c r="Y132">
         <v>0</v>
       </c>
-      <c r="Z132">
-        <v>0</v>
-      </c>
-      <c r="AA132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:27">
+    </row>
+    <row r="133" spans="1:25">
       <c r="A133" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B133" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -10730,16 +9932,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J133" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K133">
         <v>132</v>
       </c>
       <c r="L133" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M133">
         <v>54</v>
@@ -10748,13 +9950,13 @@
         <v>99</v>
       </c>
       <c r="O133" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P133" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S133" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -10768,19 +9970,13 @@
       <c r="Y133">
         <v>0</v>
       </c>
-      <c r="Z133">
-        <v>0</v>
-      </c>
-      <c r="AA133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:27">
+    </row>
+    <row r="134" spans="1:25">
       <c r="A134" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10798,16 +9994,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J134" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K134">
         <v>133</v>
       </c>
       <c r="L134" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M134">
         <v>54</v>
@@ -10816,13 +10012,13 @@
         <v>99</v>
       </c>
       <c r="O134" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P134" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S134" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V134">
         <v>0</v>
@@ -10836,19 +10032,13 @@
       <c r="Y134">
         <v>0</v>
       </c>
-      <c r="Z134">
-        <v>0</v>
-      </c>
-      <c r="AA134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:27">
+    </row>
+    <row r="135" spans="1:25">
       <c r="A135" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B135" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10866,16 +10056,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J135" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K135">
         <v>134</v>
       </c>
       <c r="L135" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M135">
         <v>55</v>
@@ -10884,13 +10074,13 @@
         <v>100</v>
       </c>
       <c r="O135" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P135" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S135" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V135">
         <v>0</v>
@@ -10904,19 +10094,13 @@
       <c r="Y135">
         <v>0</v>
       </c>
-      <c r="Z135">
-        <v>0</v>
-      </c>
-      <c r="AA135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:27">
+    </row>
+    <row r="136" spans="1:25">
       <c r="A136" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B136" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -10934,16 +10118,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J136" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K136">
         <v>135</v>
       </c>
       <c r="L136" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M136">
         <v>55</v>
@@ -10952,13 +10136,13 @@
         <v>100</v>
       </c>
       <c r="O136" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="P136" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S136" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -10972,19 +10156,13 @@
       <c r="Y136">
         <v>0</v>
       </c>
-      <c r="Z136">
-        <v>0</v>
-      </c>
-      <c r="AA136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:27">
+    </row>
+    <row r="137" spans="1:25">
       <c r="A137" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B137" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -11002,16 +10180,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J137" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K137">
         <v>136</v>
       </c>
       <c r="L137" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M137">
         <v>56</v>
@@ -11020,13 +10198,13 @@
         <v>101</v>
       </c>
       <c r="O137" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P137" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S137" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -11040,19 +10218,13 @@
       <c r="Y137">
         <v>0</v>
       </c>
-      <c r="Z137">
-        <v>0</v>
-      </c>
-      <c r="AA137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:27">
+    </row>
+    <row r="138" spans="1:25">
       <c r="A138" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B138" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -11070,16 +10242,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J138" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="K138">
         <v>137</v>
       </c>
       <c r="L138" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M138">
         <v>56</v>
@@ -11088,13 +10260,13 @@
         <v>101</v>
       </c>
       <c r="O138" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P138" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S138" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -11108,19 +10280,13 @@
       <c r="Y138">
         <v>0</v>
       </c>
-      <c r="Z138">
-        <v>0</v>
-      </c>
-      <c r="AA138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:27">
+    </row>
+    <row r="139" spans="1:25">
       <c r="A139" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B139" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -11138,16 +10304,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J139" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K139">
         <v>138</v>
       </c>
       <c r="L139" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M139">
         <v>56</v>
@@ -11156,13 +10322,13 @@
         <v>101</v>
       </c>
       <c r="O139" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="P139" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S139" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -11176,19 +10342,13 @@
       <c r="Y139">
         <v>0</v>
       </c>
-      <c r="Z139">
-        <v>0</v>
-      </c>
-      <c r="AA139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:27">
+    </row>
+    <row r="140" spans="1:25">
       <c r="A140" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B140" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -11206,16 +10366,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J140" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K140">
         <v>139</v>
       </c>
       <c r="L140" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M140">
         <v>57</v>
@@ -11224,13 +10384,13 @@
         <v>102</v>
       </c>
       <c r="O140" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P140" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S140" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V140">
         <v>0</v>
@@ -11244,19 +10404,13 @@
       <c r="Y140">
         <v>0</v>
       </c>
-      <c r="Z140">
-        <v>0</v>
-      </c>
-      <c r="AA140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:27">
+    </row>
+    <row r="141" spans="1:25">
       <c r="A141" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -11274,16 +10428,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J141" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K141">
         <v>140</v>
       </c>
       <c r="L141" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M141">
         <v>57</v>
@@ -11292,13 +10446,13 @@
         <v>102</v>
       </c>
       <c r="O141" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P141" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S141" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -11312,19 +10466,13 @@
       <c r="Y141">
         <v>0</v>
       </c>
-      <c r="Z141">
-        <v>0</v>
-      </c>
-      <c r="AA141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:27">
+    </row>
+    <row r="142" spans="1:25">
       <c r="A142" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B142" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -11342,16 +10490,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J142" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="K142">
         <v>141</v>
       </c>
       <c r="L142" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M142">
         <v>57</v>
@@ -11360,13 +10508,13 @@
         <v>102</v>
       </c>
       <c r="O142" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="P142" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S142" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -11380,19 +10528,13 @@
       <c r="Y142">
         <v>0</v>
       </c>
-      <c r="Z142">
-        <v>0</v>
-      </c>
-      <c r="AA142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:27">
+    </row>
+    <row r="143" spans="1:25">
       <c r="A143" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B143" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -11410,19 +10552,19 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I143" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J143" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K143">
         <v>142</v>
       </c>
       <c r="L143" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M143">
         <v>58</v>
@@ -11431,13 +10573,13 @@
         <v>103</v>
       </c>
       <c r="O143" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="P143" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="S143" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V143">
         <v>0</v>
@@ -11451,19 +10593,13 @@
       <c r="Y143">
         <v>0</v>
       </c>
-      <c r="Z143">
-        <v>0</v>
-      </c>
-      <c r="AA143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:27">
+    </row>
+    <row r="144" spans="1:25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B144" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -11481,16 +10617,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J144" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K144">
         <v>143</v>
       </c>
       <c r="L144" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M144">
         <v>59</v>
@@ -11499,13 +10635,13 @@
         <v>104</v>
       </c>
       <c r="O144" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P144" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S144" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V144">
         <v>0</v>
@@ -11519,19 +10655,13 @@
       <c r="Y144">
         <v>0</v>
       </c>
-      <c r="Z144">
-        <v>0</v>
-      </c>
-      <c r="AA144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:27">
+    </row>
+    <row r="145" spans="1:25">
       <c r="A145" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B145" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -11549,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J145" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K145">
         <v>144</v>
       </c>
       <c r="L145" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M145">
         <v>59</v>
@@ -11567,13 +10697,13 @@
         <v>104</v>
       </c>
       <c r="O145" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="P145" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S145" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V145">
         <v>0</v>
@@ -11587,19 +10717,13 @@
       <c r="Y145">
         <v>0</v>
       </c>
-      <c r="Z145">
-        <v>0</v>
-      </c>
-      <c r="AA145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:27">
+    </row>
+    <row r="146" spans="1:25">
       <c r="A146" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -11617,16 +10741,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J146" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K146">
         <v>145</v>
       </c>
       <c r="L146" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M146">
         <v>60</v>
@@ -11635,13 +10759,13 @@
         <v>105</v>
       </c>
       <c r="O146" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P146" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="S146" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V146">
         <v>0</v>
@@ -11655,19 +10779,13 @@
       <c r="Y146">
         <v>0</v>
       </c>
-      <c r="Z146">
-        <v>0</v>
-      </c>
-      <c r="AA146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:27">
+    </row>
+    <row r="147" spans="1:25">
       <c r="A147" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B147" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -11685,16 +10803,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J147" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K147">
         <v>146</v>
       </c>
       <c r="L147" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M147">
         <v>61</v>
@@ -11703,13 +10821,13 @@
         <v>106</v>
       </c>
       <c r="O147" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P147" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="S147" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -11723,19 +10841,13 @@
       <c r="Y147">
         <v>0</v>
       </c>
-      <c r="Z147">
-        <v>0</v>
-      </c>
-      <c r="AA147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:27">
+    </row>
+    <row r="148" spans="1:25">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B148" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -11753,16 +10865,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J148" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K148">
         <v>147</v>
       </c>
       <c r="L148" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M148">
         <v>63</v>
@@ -11771,13 +10883,13 @@
         <v>110</v>
       </c>
       <c r="O148" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="P148" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S148" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -11791,19 +10903,13 @@
       <c r="Y148">
         <v>0</v>
       </c>
-      <c r="Z148">
-        <v>0</v>
-      </c>
-      <c r="AA148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:27">
+    </row>
+    <row r="149" spans="1:25">
       <c r="A149" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B149" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -11821,16 +10927,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J149" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K149">
         <v>148</v>
       </c>
       <c r="L149" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M149">
         <v>64</v>
@@ -11839,13 +10945,13 @@
         <v>111</v>
       </c>
       <c r="O149" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="P149" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S149" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -11859,19 +10965,13 @@
       <c r="Y149">
         <v>0</v>
       </c>
-      <c r="Z149">
-        <v>0</v>
-      </c>
-      <c r="AA149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:27">
+    </row>
+    <row r="150" spans="1:25">
       <c r="A150" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B150" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11889,16 +10989,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J150" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K150">
         <v>149</v>
       </c>
       <c r="L150" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M150">
         <v>65</v>
@@ -11907,13 +11007,13 @@
         <v>113</v>
       </c>
       <c r="O150" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P150" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="S150" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -11927,19 +11027,13 @@
       <c r="Y150">
         <v>0</v>
       </c>
-      <c r="Z150">
-        <v>0</v>
-      </c>
-      <c r="AA150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="1:27">
+    </row>
+    <row r="151" spans="1:25">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11957,16 +11051,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J151" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="K151">
         <v>150</v>
       </c>
       <c r="L151" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M151">
         <v>67</v>
@@ -11975,13 +11069,13 @@
         <v>115</v>
       </c>
       <c r="O151" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="P151" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S151" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="V151">
         <v>0</v>
@@ -11995,20 +11089,14 @@
       <c r="Y151">
         <v>0</v>
       </c>
-      <c r="Z151">
-        <v>0</v>
-      </c>
-      <c r="AA151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:27">
+    </row>
+    <row r="152" spans="1:25">
       <c r="A152" t="s">
+        <v>172</v>
+      </c>
+      <c r="B152" t="s">
         <v>174</v>
       </c>
-      <c r="B152" t="s">
-        <v>176</v>
-      </c>
       <c r="C152">
         <v>1</v>
       </c>
@@ -12025,16 +11113,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="J152" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K152">
         <v>151</v>
       </c>
       <c r="L152" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M152">
         <v>70</v>
@@ -12043,13 +11131,13 @@
         <v>119</v>
       </c>
       <c r="O152" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="P152" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S152" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="V152">
         <v>0</v>
@@ -12061,12 +11149,6 @@
         <v>0</v>
       </c>
       <c r="Y152">
-        <v>0</v>
-      </c>
-      <c r="Z152">
-        <v>0</v>
-      </c>
-      <c r="AA152">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1104" uniqueCount="420">
   <si>
     <t>p20_nom</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>c3</t>
+  </si>
+  <si>
+    <t>l1</t>
   </si>
   <si>
     <t>nota_iniciativa</t>
@@ -1644,13 +1647,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y152"/>
+  <dimension ref="A1:Z152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1726,13 +1729,16 @@
       <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1750,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M2">
         <v>2</v>
@@ -1768,13 +1774,13 @@
         <v>6</v>
       </c>
       <c r="O2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P2" s="2">
         <v>44998.82651620371</v>
       </c>
       <c r="S2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V2">
         <v>0</v>
@@ -1788,13 +1794,16 @@
       <c r="Y2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25">
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1812,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J3" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K3">
         <v>2</v>
       </c>
       <c r="L3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M3">
         <v>3</v>
@@ -1830,13 +1839,13 @@
         <v>7</v>
       </c>
       <c r="O3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P3" s="2">
         <v>45013.73163194444</v>
       </c>
       <c r="S3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -1850,13 +1859,16 @@
       <c r="Y3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:25">
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1874,19 +1886,19 @@
         <v>0</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I4" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J4" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K4">
         <v>3</v>
       </c>
       <c r="L4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M4">
         <v>4</v>
@@ -1895,13 +1907,13 @@
         <v>9</v>
       </c>
       <c r="O4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="P4" s="2">
         <v>45021.78807870371</v>
       </c>
       <c r="S4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -1915,13 +1927,16 @@
       <c r="Y4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:25">
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -1939,16 +1954,16 @@
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J5" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K5">
         <v>4</v>
       </c>
       <c r="L5" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M5">
         <v>6</v>
@@ -1957,13 +1972,13 @@
         <v>12</v>
       </c>
       <c r="O5" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P5" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S5" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V5">
         <v>0</v>
@@ -1977,13 +1992,16 @@
       <c r="Y5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:25">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -2001,16 +2019,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J6" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K6">
         <v>5</v>
       </c>
       <c r="L6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M6">
         <v>6</v>
@@ -2019,13 +2037,13 @@
         <v>12</v>
       </c>
       <c r="O6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P6" s="2">
         <v>45026.78277777778</v>
       </c>
       <c r="S6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V6">
         <v>0</v>
@@ -2039,13 +2057,16 @@
       <c r="Y6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:25">
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -2063,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K7">
         <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M7">
         <v>7</v>
@@ -2081,13 +2102,13 @@
         <v>13</v>
       </c>
       <c r="O7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="P7" s="2">
         <v>45027.65930555556</v>
       </c>
       <c r="S7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V7">
         <v>0</v>
@@ -2101,13 +2122,16 @@
       <c r="Y7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:25">
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -2125,16 +2149,16 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K8">
         <v>7</v>
       </c>
       <c r="L8" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M8">
         <v>8</v>
@@ -2143,13 +2167,13 @@
         <v>14</v>
       </c>
       <c r="O8" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P8" s="2">
         <v>45028.7987037037</v>
       </c>
       <c r="S8" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V8">
         <v>0</v>
@@ -2163,13 +2187,16 @@
       <c r="Y8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25">
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -2187,16 +2214,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="K9">
         <v>8</v>
       </c>
       <c r="L9" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M9">
         <v>9</v>
@@ -2205,13 +2232,13 @@
         <v>15</v>
       </c>
       <c r="O9" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P9" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S9" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V9">
         <v>0</v>
@@ -2225,13 +2252,16 @@
       <c r="Y9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:25">
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2249,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K10">
         <v>9</v>
       </c>
       <c r="L10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M10">
         <v>9</v>
@@ -2267,13 +2297,13 @@
         <v>15</v>
       </c>
       <c r="O10" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="P10" s="2">
         <v>45028.82005787037</v>
       </c>
       <c r="S10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V10">
         <v>0</v>
@@ -2287,13 +2317,16 @@
       <c r="Y10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:25">
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2311,16 +2344,16 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K11">
         <v>10</v>
       </c>
       <c r="L11" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M11">
         <v>10</v>
@@ -2329,13 +2362,13 @@
         <v>16</v>
       </c>
       <c r="O11" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P11" s="2">
         <v>45028.88724537037</v>
       </c>
       <c r="S11" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V11">
         <v>0</v>
@@ -2349,13 +2382,16 @@
       <c r="Y11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:25">
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2373,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J12" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K12">
         <v>11</v>
       </c>
       <c r="L12" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M12">
         <v>11</v>
@@ -2391,13 +2427,13 @@
         <v>17</v>
       </c>
       <c r="O12" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P12" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V12">
         <v>0</v>
@@ -2411,13 +2447,16 @@
       <c r="Y12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:25">
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2435,16 +2474,16 @@
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J13" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K13">
         <v>12</v>
       </c>
       <c r="L13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M13">
         <v>11</v>
@@ -2453,13 +2492,13 @@
         <v>17</v>
       </c>
       <c r="O13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P13" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S13" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V13">
         <v>0</v>
@@ -2473,13 +2512,16 @@
       <c r="Y13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25">
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2497,16 +2539,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J14" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K14">
         <v>13</v>
       </c>
       <c r="L14" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M14">
         <v>11</v>
@@ -2515,13 +2557,13 @@
         <v>17</v>
       </c>
       <c r="O14" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P14" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S14" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V14">
         <v>0</v>
@@ -2535,13 +2577,16 @@
       <c r="Y14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25">
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2559,16 +2604,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J15" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K15">
         <v>14</v>
       </c>
       <c r="L15" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M15">
         <v>11</v>
@@ -2577,13 +2622,13 @@
         <v>17</v>
       </c>
       <c r="O15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P15" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S15" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V15">
         <v>0</v>
@@ -2597,13 +2642,16 @@
       <c r="Y15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25">
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B16" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -2621,16 +2669,16 @@
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J16" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K16">
         <v>15</v>
       </c>
       <c r="L16" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M16">
         <v>11</v>
@@ -2639,13 +2687,13 @@
         <v>17</v>
       </c>
       <c r="O16" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P16" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S16" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V16">
         <v>0</v>
@@ -2659,13 +2707,16 @@
       <c r="Y16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:25">
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -2683,16 +2734,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J17" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="K17">
         <v>16</v>
       </c>
       <c r="L17" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M17">
         <v>11</v>
@@ -2701,13 +2752,13 @@
         <v>17</v>
       </c>
       <c r="O17" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P17" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S17" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V17">
         <v>0</v>
@@ -2721,13 +2772,16 @@
       <c r="Y17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:25">
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
       <c r="A18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2745,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J18" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="K18">
         <v>17</v>
       </c>
       <c r="L18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M18">
         <v>11</v>
@@ -2763,13 +2817,13 @@
         <v>17</v>
       </c>
       <c r="O18" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P18" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S18" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V18">
         <v>0</v>
@@ -2783,13 +2837,16 @@
       <c r="Y18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:25">
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -2807,16 +2864,16 @@
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K19">
         <v>18</v>
       </c>
       <c r="L19" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M19">
         <v>11</v>
@@ -2825,13 +2882,13 @@
         <v>17</v>
       </c>
       <c r="O19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P19" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S19" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V19">
         <v>0</v>
@@ -2845,13 +2902,16 @@
       <c r="Y19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:25">
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -2869,16 +2929,16 @@
         <v>0</v>
       </c>
       <c r="I20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J20" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K20">
         <v>19</v>
       </c>
       <c r="L20" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M20">
         <v>11</v>
@@ -2887,13 +2947,13 @@
         <v>17</v>
       </c>
       <c r="O20" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="P20" s="2">
         <v>45028.9031712963</v>
       </c>
       <c r="S20" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V20">
         <v>0</v>
@@ -2907,13 +2967,16 @@
       <c r="Y20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:25">
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2931,16 +2994,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J21" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K21">
         <v>20</v>
       </c>
       <c r="L21" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M21">
         <v>12</v>
@@ -2949,13 +3012,13 @@
         <v>18</v>
       </c>
       <c r="O21" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="P21" s="2">
         <v>45029.81189814815</v>
       </c>
       <c r="S21" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V21">
         <v>0</v>
@@ -2969,13 +3032,16 @@
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25">
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B22" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2993,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="I22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J22" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K22">
         <v>21</v>
       </c>
       <c r="L22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M22">
         <v>13</v>
@@ -3011,13 +3077,13 @@
         <v>20</v>
       </c>
       <c r="O22" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="P22" s="2">
         <v>45029.85457175926</v>
       </c>
       <c r="S22" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3031,13 +3097,16 @@
       <c r="Y22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:25">
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
       <c r="A23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -3055,16 +3124,16 @@
         <v>0</v>
       </c>
       <c r="I23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J23" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K23">
         <v>22</v>
       </c>
       <c r="L23" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M23">
         <v>15</v>
@@ -3073,13 +3142,13 @@
         <v>22</v>
       </c>
       <c r="O23" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P23" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S23" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V23">
         <v>0</v>
@@ -3093,13 +3162,16 @@
       <c r="Y23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:25">
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -3117,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J24" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K24">
         <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M24">
         <v>15</v>
@@ -3135,13 +3207,13 @@
         <v>22</v>
       </c>
       <c r="O24" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P24" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S24" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V24">
         <v>0</v>
@@ -3155,13 +3227,16 @@
       <c r="Y24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:25">
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B25" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -3179,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K25">
         <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M25">
         <v>15</v>
@@ -3197,13 +3272,13 @@
         <v>22</v>
       </c>
       <c r="O25" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P25" s="2">
         <v>45029.87159722222</v>
       </c>
       <c r="S25" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3217,13 +3292,16 @@
       <c r="Y25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:25">
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -3241,16 +3319,16 @@
         <v>0</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K26">
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M26">
         <v>16</v>
@@ -3259,13 +3337,13 @@
         <v>25</v>
       </c>
       <c r="O26" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P26" s="2">
         <v>45030.71190972222</v>
       </c>
       <c r="S26" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V26">
         <v>0</v>
@@ -3279,13 +3357,16 @@
       <c r="Y26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:25">
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -3303,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J27" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="K27">
         <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M27">
         <v>17</v>
@@ -3321,13 +3402,13 @@
         <v>26</v>
       </c>
       <c r="O27" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P27" s="2">
         <v>45030.72005787037</v>
       </c>
       <c r="S27" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V27">
         <v>0</v>
@@ -3341,13 +3422,16 @@
       <c r="Y27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:25">
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -3365,16 +3449,16 @@
         <v>0</v>
       </c>
       <c r="I28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K28">
         <v>27</v>
       </c>
       <c r="L28" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M28">
         <v>18</v>
@@ -3383,13 +3467,13 @@
         <v>27</v>
       </c>
       <c r="O28" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="P28" s="2">
         <v>45030.79391203704</v>
       </c>
       <c r="S28" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V28">
         <v>0</v>
@@ -3403,13 +3487,16 @@
       <c r="Y28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:25">
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -3427,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I29" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K29">
         <v>28</v>
       </c>
       <c r="L29" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M29">
         <v>19</v>
@@ -3448,13 +3535,13 @@
         <v>30</v>
       </c>
       <c r="O29" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P29" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S29" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V29">
         <v>0</v>
@@ -3468,13 +3555,16 @@
       <c r="Y29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:25">
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -3492,19 +3582,19 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J30" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K30">
         <v>29</v>
       </c>
       <c r="L30" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M30">
         <v>19</v>
@@ -3513,13 +3603,13 @@
         <v>30</v>
       </c>
       <c r="O30" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P30" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S30" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V30">
         <v>0</v>
@@ -3533,13 +3623,16 @@
       <c r="Y30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:25">
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26">
       <c r="A31" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3557,19 +3650,19 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I31" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K31">
         <v>30</v>
       </c>
       <c r="L31" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M31">
         <v>19</v>
@@ -3578,13 +3671,13 @@
         <v>30</v>
       </c>
       <c r="O31" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="P31" s="2">
         <v>45030.94386574074</v>
       </c>
       <c r="S31" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3598,13 +3691,16 @@
       <c r="Y31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:25">
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3622,16 +3718,16 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K32">
         <v>31</v>
       </c>
       <c r="L32" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M32">
         <v>20</v>
@@ -3640,13 +3736,13 @@
         <v>33</v>
       </c>
       <c r="O32" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P32" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S32" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3660,13 +3756,16 @@
       <c r="Y32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:25">
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -3684,16 +3783,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J33" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="K33">
         <v>32</v>
       </c>
       <c r="L33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M33">
         <v>20</v>
@@ -3702,13 +3801,13 @@
         <v>33</v>
       </c>
       <c r="O33" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P33" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S33" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V33">
         <v>0</v>
@@ -3722,13 +3821,16 @@
       <c r="Y33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:25">
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:26">
       <c r="A34" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -3746,16 +3848,16 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J34" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="K34">
         <v>33</v>
       </c>
       <c r="L34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M34">
         <v>20</v>
@@ -3764,13 +3866,13 @@
         <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P34" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S34" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V34">
         <v>0</v>
@@ -3784,13 +3886,16 @@
       <c r="Y34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:25">
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:26">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -3808,16 +3913,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K35">
         <v>34</v>
       </c>
       <c r="L35" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M35">
         <v>20</v>
@@ -3826,13 +3931,13 @@
         <v>33</v>
       </c>
       <c r="O35" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P35" s="2">
         <v>45030.95898148148</v>
       </c>
       <c r="S35" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V35">
         <v>0</v>
@@ -3846,13 +3951,16 @@
       <c r="Y35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:25">
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:26">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -3870,16 +3978,16 @@
         <v>1</v>
       </c>
       <c r="I36" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J36" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="K36">
         <v>35</v>
       </c>
       <c r="L36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M36">
         <v>21</v>
@@ -3888,13 +3996,13 @@
         <v>34</v>
       </c>
       <c r="O36" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P36" s="2">
         <v>45030.97623842592</v>
       </c>
       <c r="S36" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -3908,13 +4016,16 @@
       <c r="Y36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:25">
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:26">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -3932,16 +4043,16 @@
         <v>0</v>
       </c>
       <c r="I37" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J37" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K37">
         <v>36</v>
       </c>
       <c r="L37" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M37">
         <v>22</v>
@@ -3950,13 +4061,13 @@
         <v>37</v>
       </c>
       <c r="O37" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P37" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S37" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V37">
         <v>0</v>
@@ -3970,13 +4081,16 @@
       <c r="Y37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:25">
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:26">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -3994,19 +4108,19 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I38" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J38" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K38">
         <v>37</v>
       </c>
       <c r="L38" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M38">
         <v>22</v>
@@ -4015,13 +4129,13 @@
         <v>37</v>
       </c>
       <c r="O38" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P38" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S38" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V38">
         <v>0</v>
@@ -4035,13 +4149,16 @@
       <c r="Y38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:25">
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:26">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4059,16 +4176,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J39" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K39">
         <v>38</v>
       </c>
       <c r="L39" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M39">
         <v>22</v>
@@ -4077,13 +4194,13 @@
         <v>37</v>
       </c>
       <c r="O39" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P39" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S39" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V39">
         <v>0</v>
@@ -4097,13 +4214,16 @@
       <c r="Y39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:25">
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:26">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -4121,16 +4241,16 @@
         <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J40" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="K40">
         <v>39</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M40">
         <v>22</v>
@@ -4139,13 +4259,13 @@
         <v>37</v>
       </c>
       <c r="O40" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P40" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S40" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V40">
         <v>0</v>
@@ -4159,13 +4279,16 @@
       <c r="Y40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:25">
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:26">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -4183,16 +4306,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J41" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="K41">
         <v>40</v>
       </c>
       <c r="L41" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M41">
         <v>22</v>
@@ -4201,13 +4324,13 @@
         <v>37</v>
       </c>
       <c r="O41" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P41" s="2">
         <v>45031.15133101852</v>
       </c>
       <c r="S41" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V41">
         <v>0</v>
@@ -4221,13 +4344,16 @@
       <c r="Y41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:25">
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:26">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -4245,16 +4371,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J42" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="K42">
         <v>41</v>
       </c>
       <c r="L42" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M42">
         <v>23</v>
@@ -4263,13 +4389,13 @@
         <v>38</v>
       </c>
       <c r="O42" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P42" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S42" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -4283,13 +4409,16 @@
       <c r="Y42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:25">
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:26">
       <c r="A43" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -4307,16 +4436,16 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J43" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K43">
         <v>42</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M43">
         <v>23</v>
@@ -4325,13 +4454,13 @@
         <v>38</v>
       </c>
       <c r="O43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P43" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S43" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V43">
         <v>0</v>
@@ -4345,13 +4474,16 @@
       <c r="Y43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:25">
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:26">
       <c r="A44" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -4369,16 +4501,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K44">
         <v>43</v>
       </c>
       <c r="L44" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M44">
         <v>23</v>
@@ -4387,13 +4519,13 @@
         <v>38</v>
       </c>
       <c r="O44" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P44" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S44" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V44">
         <v>0</v>
@@ -4407,13 +4539,16 @@
       <c r="Y44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:25">
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:26">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4431,16 +4566,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K45">
         <v>44</v>
       </c>
       <c r="L45" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M45">
         <v>23</v>
@@ -4449,13 +4584,13 @@
         <v>38</v>
       </c>
       <c r="O45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P45" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S45" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V45">
         <v>0</v>
@@ -4469,13 +4604,16 @@
       <c r="Y45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:25">
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26">
       <c r="A46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4493,16 +4631,16 @@
         <v>0</v>
       </c>
       <c r="I46" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J46" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K46">
         <v>45</v>
       </c>
       <c r="L46" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M46">
         <v>23</v>
@@ -4511,13 +4649,13 @@
         <v>38</v>
       </c>
       <c r="O46" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P46" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S46" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V46">
         <v>0</v>
@@ -4531,13 +4669,16 @@
       <c r="Y46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:25">
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4555,16 +4696,16 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J47" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K47">
         <v>46</v>
       </c>
       <c r="L47" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M47">
         <v>23</v>
@@ -4573,13 +4714,13 @@
         <v>38</v>
       </c>
       <c r="O47" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P47" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S47" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V47">
         <v>0</v>
@@ -4593,13 +4734,16 @@
       <c r="Y47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:25">
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26">
       <c r="A48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4617,16 +4761,16 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J48" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K48">
         <v>47</v>
       </c>
       <c r="L48" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M48">
         <v>23</v>
@@ -4635,13 +4779,13 @@
         <v>38</v>
       </c>
       <c r="O48" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P48" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S48" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V48">
         <v>0</v>
@@ -4655,13 +4799,16 @@
       <c r="Y48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:25">
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:26">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4679,16 +4826,16 @@
         <v>0</v>
       </c>
       <c r="I49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J49" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K49">
         <v>48</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M49">
         <v>23</v>
@@ -4697,13 +4844,13 @@
         <v>38</v>
       </c>
       <c r="O49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P49" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S49" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V49">
         <v>0</v>
@@ -4717,13 +4864,16 @@
       <c r="Y49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:25">
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:26">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -4741,16 +4891,16 @@
         <v>0</v>
       </c>
       <c r="I50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J50" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="K50">
         <v>49</v>
       </c>
       <c r="L50" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M50">
         <v>23</v>
@@ -4759,13 +4909,13 @@
         <v>38</v>
       </c>
       <c r="O50" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P50" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S50" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V50">
         <v>0</v>
@@ -4779,13 +4929,16 @@
       <c r="Y50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:25">
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:26">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4803,16 +4956,16 @@
         <v>0</v>
       </c>
       <c r="I51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J51" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="K51">
         <v>50</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M51">
         <v>23</v>
@@ -4821,13 +4974,13 @@
         <v>38</v>
       </c>
       <c r="O51" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P51" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S51" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V51">
         <v>0</v>
@@ -4841,13 +4994,16 @@
       <c r="Y51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:25">
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:26">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4865,16 +5021,16 @@
         <v>0</v>
       </c>
       <c r="I52" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J52" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K52">
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M52">
         <v>23</v>
@@ -4883,13 +5039,13 @@
         <v>38</v>
       </c>
       <c r="O52" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P52" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S52" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V52">
         <v>0</v>
@@ -4903,13 +5059,16 @@
       <c r="Y52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:25">
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4927,16 +5086,16 @@
         <v>0</v>
       </c>
       <c r="I53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J53" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K53">
         <v>52</v>
       </c>
       <c r="L53" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M53">
         <v>23</v>
@@ -4945,13 +5104,13 @@
         <v>38</v>
       </c>
       <c r="O53" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P53" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S53" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V53">
         <v>0</v>
@@ -4965,13 +5124,16 @@
       <c r="Y53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:25">
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:26">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -4989,16 +5151,16 @@
         <v>0</v>
       </c>
       <c r="I54" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K54">
         <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M54">
         <v>23</v>
@@ -5007,13 +5169,13 @@
         <v>38</v>
       </c>
       <c r="O54" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P54" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S54" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V54">
         <v>0</v>
@@ -5027,13 +5189,16 @@
       <c r="Y54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:25">
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:26">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -5051,16 +5216,16 @@
         <v>0</v>
       </c>
       <c r="I55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K55">
         <v>54</v>
       </c>
       <c r="L55" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M55">
         <v>23</v>
@@ -5069,13 +5234,13 @@
         <v>38</v>
       </c>
       <c r="O55" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="P55" s="2">
         <v>45031.19106481481</v>
       </c>
       <c r="S55" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V55">
         <v>0</v>
@@ -5089,13 +5254,16 @@
       <c r="Y55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:25">
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:26">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -5113,19 +5281,19 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="I56" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J56" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="K56">
         <v>55</v>
       </c>
       <c r="L56" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M56">
         <v>24</v>
@@ -5134,13 +5302,13 @@
         <v>51</v>
       </c>
       <c r="O56" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P56" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S56" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V56">
         <v>0</v>
@@ -5154,13 +5322,16 @@
       <c r="Y56">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:25">
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:26">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -5178,19 +5349,19 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I57" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J57" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K57">
         <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M57">
         <v>24</v>
@@ -5199,13 +5370,13 @@
         <v>51</v>
       </c>
       <c r="O57" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P57" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V57">
         <v>0</v>
@@ -5219,13 +5390,16 @@
       <c r="Y57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:25">
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:26">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -5243,16 +5417,16 @@
         <v>0</v>
       </c>
       <c r="I58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J58" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K58">
         <v>57</v>
       </c>
       <c r="L58" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M58">
         <v>24</v>
@@ -5261,13 +5435,13 @@
         <v>51</v>
       </c>
       <c r="O58" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P58" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S58" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V58">
         <v>0</v>
@@ -5281,13 +5455,16 @@
       <c r="Y58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:25">
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:26">
       <c r="A59" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -5305,16 +5482,16 @@
         <v>0</v>
       </c>
       <c r="I59" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J59" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K59">
         <v>58</v>
       </c>
       <c r="L59" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M59">
         <v>24</v>
@@ -5323,13 +5500,13 @@
         <v>51</v>
       </c>
       <c r="O59" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P59" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S59" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V59">
         <v>0</v>
@@ -5343,13 +5520,16 @@
       <c r="Y59">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:25">
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:26">
       <c r="A60" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B60" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -5367,16 +5547,16 @@
         <v>0</v>
       </c>
       <c r="I60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K60">
         <v>59</v>
       </c>
       <c r="L60" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M60">
         <v>24</v>
@@ -5385,13 +5565,13 @@
         <v>51</v>
       </c>
       <c r="O60" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P60" s="2">
         <v>45033.69763888889</v>
       </c>
       <c r="S60" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V60">
         <v>0</v>
@@ -5405,13 +5585,16 @@
       <c r="Y60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:25">
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:26">
       <c r="A61" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -5429,16 +5612,16 @@
         <v>0</v>
       </c>
       <c r="I61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J61" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K61">
         <v>60</v>
       </c>
       <c r="L61" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M61">
         <v>26</v>
@@ -5447,13 +5630,13 @@
         <v>55</v>
       </c>
       <c r="O61" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P61" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S61" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V61">
         <v>0</v>
@@ -5467,13 +5650,16 @@
       <c r="Y61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:25">
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:26">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -5491,16 +5677,16 @@
         <v>0</v>
       </c>
       <c r="I62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K62">
         <v>61</v>
       </c>
       <c r="L62" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M62">
         <v>26</v>
@@ -5509,13 +5695,13 @@
         <v>55</v>
       </c>
       <c r="O62" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P62" s="2">
         <v>45033.88635416667</v>
       </c>
       <c r="S62" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V62">
         <v>0</v>
@@ -5529,13 +5715,16 @@
       <c r="Y62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:25">
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:26">
       <c r="A63" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -5553,16 +5742,16 @@
         <v>0</v>
       </c>
       <c r="I63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K63">
         <v>62</v>
       </c>
       <c r="L63" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M63">
         <v>27</v>
@@ -5571,13 +5760,13 @@
         <v>56</v>
       </c>
       <c r="O63" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="P63" s="2">
         <v>45034.64582175926</v>
       </c>
       <c r="S63" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V63">
         <v>0</v>
@@ -5591,13 +5780,16 @@
       <c r="Y63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:25">
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:26">
       <c r="A64" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B64" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -5615,16 +5807,16 @@
         <v>0</v>
       </c>
       <c r="I64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J64" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K64">
         <v>63</v>
       </c>
       <c r="L64" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M64">
         <v>28</v>
@@ -5633,13 +5825,13 @@
         <v>57</v>
       </c>
       <c r="O64" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P64" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S64" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -5653,13 +5845,16 @@
       <c r="Y64">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:25">
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:26">
       <c r="A65" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B65" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -5677,16 +5872,16 @@
         <v>0</v>
       </c>
       <c r="I65" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J65" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K65">
         <v>64</v>
       </c>
       <c r="L65" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M65">
         <v>28</v>
@@ -5695,13 +5890,13 @@
         <v>57</v>
       </c>
       <c r="O65" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P65" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S65" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V65">
         <v>0</v>
@@ -5715,13 +5910,16 @@
       <c r="Y65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:25">
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:26">
       <c r="A66" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -5739,16 +5937,16 @@
         <v>0</v>
       </c>
       <c r="I66" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J66" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K66">
         <v>65</v>
       </c>
       <c r="L66" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M66">
         <v>28</v>
@@ -5757,13 +5955,13 @@
         <v>57</v>
       </c>
       <c r="O66" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P66" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S66" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V66">
         <v>0</v>
@@ -5777,13 +5975,16 @@
       <c r="Y66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:25">
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:26">
       <c r="A67" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -5801,16 +6002,16 @@
         <v>0</v>
       </c>
       <c r="I67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J67" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K67">
         <v>66</v>
       </c>
       <c r="L67" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M67">
         <v>28</v>
@@ -5819,13 +6020,13 @@
         <v>57</v>
       </c>
       <c r="O67" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P67" s="2">
         <v>45034.70144675926</v>
       </c>
       <c r="S67" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V67">
         <v>0</v>
@@ -5839,13 +6040,16 @@
       <c r="Y67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:25">
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:26">
       <c r="A68" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B68" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -5863,16 +6067,16 @@
         <v>0</v>
       </c>
       <c r="I68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J68" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K68">
         <v>67</v>
       </c>
       <c r="L68" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M68">
         <v>29</v>
@@ -5881,13 +6085,13 @@
         <v>58</v>
       </c>
       <c r="O68" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P68" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S68" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V68">
         <v>0</v>
@@ -5901,13 +6105,16 @@
       <c r="Y68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:25">
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:26">
       <c r="A69" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B69" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -5925,16 +6132,16 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J69" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K69">
         <v>68</v>
       </c>
       <c r="L69" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M69">
         <v>29</v>
@@ -5943,13 +6150,13 @@
         <v>58</v>
       </c>
       <c r="O69" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P69" s="2">
         <v>45034.89546296297</v>
       </c>
       <c r="S69" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V69">
         <v>0</v>
@@ -5963,13 +6170,16 @@
       <c r="Y69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:25">
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:26">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -5987,16 +6197,16 @@
         <v>0</v>
       </c>
       <c r="I70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J70" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K70">
         <v>69</v>
       </c>
       <c r="L70" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M70">
         <v>30</v>
@@ -6005,13 +6215,13 @@
         <v>59</v>
       </c>
       <c r="O70" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P70" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S70" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V70">
         <v>0</v>
@@ -6025,13 +6235,16 @@
       <c r="Y70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:25">
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:26">
       <c r="A71" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B71" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -6049,16 +6262,16 @@
         <v>0</v>
       </c>
       <c r="I71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K71">
         <v>70</v>
       </c>
       <c r="L71" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M71">
         <v>30</v>
@@ -6067,13 +6280,13 @@
         <v>59</v>
       </c>
       <c r="O71" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P71" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S71" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V71">
         <v>0</v>
@@ -6087,13 +6300,16 @@
       <c r="Y71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:25">
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:26">
       <c r="A72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -6111,16 +6327,16 @@
         <v>0</v>
       </c>
       <c r="I72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J72" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K72">
         <v>71</v>
       </c>
       <c r="L72" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M72">
         <v>30</v>
@@ -6129,13 +6345,13 @@
         <v>59</v>
       </c>
       <c r="O72" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P72" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S72" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V72">
         <v>0</v>
@@ -6149,13 +6365,16 @@
       <c r="Y72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:25">
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:26">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B73" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -6173,16 +6392,16 @@
         <v>0</v>
       </c>
       <c r="I73" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K73">
         <v>72</v>
       </c>
       <c r="L73" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M73">
         <v>30</v>
@@ -6191,13 +6410,13 @@
         <v>59</v>
       </c>
       <c r="O73" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P73" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S73" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V73">
         <v>0</v>
@@ -6211,13 +6430,16 @@
       <c r="Y73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:25">
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:26">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -6235,16 +6457,16 @@
         <v>0</v>
       </c>
       <c r="I74" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J74" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K74">
         <v>73</v>
       </c>
       <c r="L74" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M74">
         <v>30</v>
@@ -6253,13 +6475,13 @@
         <v>59</v>
       </c>
       <c r="O74" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="P74" s="2">
         <v>45034.90506944444</v>
       </c>
       <c r="S74" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V74">
         <v>0</v>
@@ -6273,13 +6495,16 @@
       <c r="Y74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:25">
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:26">
       <c r="A75" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B75" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -6297,16 +6522,16 @@
         <v>0</v>
       </c>
       <c r="I75" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J75" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K75">
         <v>74</v>
       </c>
       <c r="L75" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M75">
         <v>31</v>
@@ -6315,13 +6540,13 @@
         <v>60</v>
       </c>
       <c r="O75" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P75" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S75" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V75">
         <v>0</v>
@@ -6335,13 +6560,16 @@
       <c r="Y75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:25">
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:26">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -6359,16 +6587,16 @@
         <v>0</v>
       </c>
       <c r="I76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J76" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K76">
         <v>75</v>
       </c>
       <c r="L76" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M76">
         <v>31</v>
@@ -6377,13 +6605,13 @@
         <v>60</v>
       </c>
       <c r="O76" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P76" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S76" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V76">
         <v>0</v>
@@ -6397,13 +6625,16 @@
       <c r="Y76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:25">
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:26">
       <c r="A77" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -6421,16 +6652,16 @@
         <v>0</v>
       </c>
       <c r="I77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J77" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K77">
         <v>76</v>
       </c>
       <c r="L77" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M77">
         <v>31</v>
@@ -6439,13 +6670,13 @@
         <v>60</v>
       </c>
       <c r="O77" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="P77" s="2">
         <v>45034.92369212963</v>
       </c>
       <c r="S77" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V77">
         <v>0</v>
@@ -6459,13 +6690,16 @@
       <c r="Y77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:25">
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:26">
       <c r="A78" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -6483,16 +6717,16 @@
         <v>0</v>
       </c>
       <c r="I78" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K78">
         <v>77</v>
       </c>
       <c r="L78" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M78">
         <v>32</v>
@@ -6501,13 +6735,13 @@
         <v>61</v>
       </c>
       <c r="O78" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="P78" s="2">
         <v>45034.94509259259</v>
       </c>
       <c r="S78" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -6521,13 +6755,16 @@
       <c r="Y78">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:25">
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:26">
       <c r="A79" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B79" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -6545,16 +6782,16 @@
         <v>0</v>
       </c>
       <c r="I79" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J79" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="K79">
         <v>78</v>
       </c>
       <c r="L79" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M79">
         <v>33</v>
@@ -6563,13 +6800,13 @@
         <v>63</v>
       </c>
       <c r="O79" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P79" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S79" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V79">
         <v>0</v>
@@ -6583,13 +6820,16 @@
       <c r="Y79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:25">
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:26">
       <c r="A80" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -6607,16 +6847,16 @@
         <v>0</v>
       </c>
       <c r="I80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J80" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K80">
         <v>79</v>
       </c>
       <c r="L80" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M80">
         <v>33</v>
@@ -6625,13 +6865,13 @@
         <v>63</v>
       </c>
       <c r="O80" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P80" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S80" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V80">
         <v>0</v>
@@ -6645,13 +6885,16 @@
       <c r="Y80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:25">
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:26">
       <c r="A81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B81" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -6669,16 +6912,16 @@
         <v>0</v>
       </c>
       <c r="I81" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J81" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K81">
         <v>80</v>
       </c>
       <c r="L81" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M81">
         <v>33</v>
@@ -6687,13 +6930,13 @@
         <v>63</v>
       </c>
       <c r="O81" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P81" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S81" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V81">
         <v>0</v>
@@ -6707,13 +6950,16 @@
       <c r="Y81">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:25">
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:26">
       <c r="A82" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B82" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -6731,16 +6977,16 @@
         <v>0</v>
       </c>
       <c r="I82" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J82" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="K82">
         <v>81</v>
       </c>
       <c r="L82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M82">
         <v>33</v>
@@ -6749,13 +6995,13 @@
         <v>63</v>
       </c>
       <c r="O82" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P82" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S82" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V82">
         <v>0</v>
@@ -6769,13 +7015,16 @@
       <c r="Y82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:25">
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:26">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B83" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -6793,16 +7042,16 @@
         <v>0</v>
       </c>
       <c r="I83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J83" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="K83">
         <v>82</v>
       </c>
       <c r="L83" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M83">
         <v>33</v>
@@ -6811,13 +7060,13 @@
         <v>63</v>
       </c>
       <c r="O83" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P83" s="2">
         <v>45035.70458333333</v>
       </c>
       <c r="S83" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -6831,13 +7080,16 @@
       <c r="Y83">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:25">
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:26">
       <c r="A84" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B84" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -6855,16 +7107,16 @@
         <v>0</v>
       </c>
       <c r="I84" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J84" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K84">
         <v>83</v>
       </c>
       <c r="L84" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M84">
         <v>34</v>
@@ -6873,13 +7125,13 @@
         <v>64</v>
       </c>
       <c r="O84" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P84" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S84" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V84">
         <v>0</v>
@@ -6893,13 +7145,16 @@
       <c r="Y84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:25">
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:26">
       <c r="A85" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B85" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -6917,16 +7172,16 @@
         <v>0</v>
       </c>
       <c r="I85" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J85" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K85">
         <v>84</v>
       </c>
       <c r="L85" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M85">
         <v>34</v>
@@ -6935,13 +7190,13 @@
         <v>64</v>
       </c>
       <c r="O85" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P85" s="2">
         <v>45035.83660879629</v>
       </c>
       <c r="S85" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -6955,13 +7210,16 @@
       <c r="Y85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:25">
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:26">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B86" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -6979,19 +7237,19 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J86" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K86">
         <v>85</v>
       </c>
       <c r="L86" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M86">
         <v>36</v>
@@ -7000,13 +7258,13 @@
         <v>77</v>
       </c>
       <c r="O86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P86" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S86" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V86">
         <v>0</v>
@@ -7020,13 +7278,16 @@
       <c r="Y86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:25">
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:26">
       <c r="A87" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -7044,16 +7305,16 @@
         <v>0</v>
       </c>
       <c r="I87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J87" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="K87">
         <v>86</v>
       </c>
       <c r="L87" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M87">
         <v>36</v>
@@ -7062,13 +7323,13 @@
         <v>77</v>
       </c>
       <c r="O87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P87" s="2">
         <v>45040.91716435185</v>
       </c>
       <c r="S87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V87">
         <v>0</v>
@@ -7082,13 +7343,16 @@
       <c r="Y87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:25">
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:26">
       <c r="A88" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B88" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -7106,16 +7370,16 @@
         <v>0</v>
       </c>
       <c r="I88" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J88" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K88">
         <v>87</v>
       </c>
       <c r="L88" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M88">
         <v>37</v>
@@ -7124,13 +7388,13 @@
         <v>78</v>
       </c>
       <c r="O88" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P88" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S88" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V88">
         <v>0</v>
@@ -7144,13 +7408,16 @@
       <c r="Y88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:25">
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:26">
       <c r="A89" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B89" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -7168,16 +7435,16 @@
         <v>0</v>
       </c>
       <c r="I89" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J89" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="K89">
         <v>88</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M89">
         <v>37</v>
@@ -7186,13 +7453,13 @@
         <v>78</v>
       </c>
       <c r="O89" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P89" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S89" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V89">
         <v>0</v>
@@ -7206,13 +7473,16 @@
       <c r="Y89">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:25">
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:26">
       <c r="A90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B90" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -7230,16 +7500,16 @@
         <v>0</v>
       </c>
       <c r="I90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J90" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K90">
         <v>89</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M90">
         <v>37</v>
@@ -7248,13 +7518,13 @@
         <v>78</v>
       </c>
       <c r="O90" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P90" s="2">
         <v>45041.15349537037</v>
       </c>
       <c r="S90" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V90">
         <v>0</v>
@@ -7268,13 +7538,16 @@
       <c r="Y90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:25">
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:26">
       <c r="A91" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -7292,16 +7565,16 @@
         <v>0</v>
       </c>
       <c r="I91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J91" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K91">
         <v>90</v>
       </c>
       <c r="L91" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M91">
         <v>38</v>
@@ -7310,13 +7583,13 @@
         <v>80</v>
       </c>
       <c r="O91" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="P91" s="2">
         <v>45041.88762731481</v>
       </c>
       <c r="S91" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V91">
         <v>0</v>
@@ -7330,13 +7603,16 @@
       <c r="Y91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:25">
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:26">
       <c r="A92" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B92" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -7354,19 +7630,19 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J92" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="K92">
         <v>91</v>
       </c>
       <c r="L92" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M92">
         <v>39</v>
@@ -7375,13 +7651,13 @@
         <v>81</v>
       </c>
       <c r="O92" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P92" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S92" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V92">
         <v>0</v>
@@ -7395,13 +7671,16 @@
       <c r="Y92">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:25">
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:26">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B93" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -7419,19 +7698,19 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I93" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J93" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K93">
         <v>92</v>
       </c>
       <c r="L93" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M93">
         <v>39</v>
@@ -7440,13 +7719,13 @@
         <v>81</v>
       </c>
       <c r="O93" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P93" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S93" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -7460,13 +7739,16 @@
       <c r="Y93">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:25">
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:26">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -7484,19 +7766,19 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="I94" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J94" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K94">
         <v>93</v>
       </c>
       <c r="L94" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M94">
         <v>39</v>
@@ -7505,13 +7787,13 @@
         <v>81</v>
       </c>
       <c r="O94" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P94" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S94" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V94">
         <v>0</v>
@@ -7525,13 +7807,16 @@
       <c r="Y94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:25">
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:26">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B95" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -7549,19 +7834,19 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="I95" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J95" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K95">
         <v>94</v>
       </c>
       <c r="L95" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M95">
         <v>39</v>
@@ -7570,13 +7855,13 @@
         <v>81</v>
       </c>
       <c r="O95" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P95" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S95" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V95">
         <v>0</v>
@@ -7590,13 +7875,16 @@
       <c r="Y95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:25">
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:26">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B96" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -7614,19 +7902,19 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I96" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J96" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K96">
         <v>95</v>
       </c>
       <c r="L96" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M96">
         <v>39</v>
@@ -7635,13 +7923,13 @@
         <v>81</v>
       </c>
       <c r="O96" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P96" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S96" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V96">
         <v>0</v>
@@ -7655,13 +7943,16 @@
       <c r="Y96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:25">
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:26">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B97" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -7679,19 +7970,19 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I97" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J97" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="K97">
         <v>96</v>
       </c>
       <c r="L97" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M97">
         <v>39</v>
@@ -7700,13 +7991,13 @@
         <v>81</v>
       </c>
       <c r="O97" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P97" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S97" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V97">
         <v>0</v>
@@ -7720,13 +8011,16 @@
       <c r="Y97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:25">
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:26">
       <c r="A98" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B98" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -7744,19 +8038,19 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="I98" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J98" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K98">
         <v>97</v>
       </c>
       <c r="L98" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M98">
         <v>39</v>
@@ -7765,13 +8059,13 @@
         <v>81</v>
       </c>
       <c r="O98" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P98" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S98" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V98">
         <v>0</v>
@@ -7785,13 +8079,16 @@
       <c r="Y98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:25">
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:26">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -7809,16 +8106,16 @@
         <v>0</v>
       </c>
       <c r="I99" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J99" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="K99">
         <v>98</v>
       </c>
       <c r="L99" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M99">
         <v>39</v>
@@ -7827,13 +8124,13 @@
         <v>81</v>
       </c>
       <c r="O99" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P99" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V99">
         <v>0</v>
@@ -7847,13 +8144,16 @@
       <c r="Y99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:25">
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:26">
       <c r="A100" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B100" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -7871,16 +8171,16 @@
         <v>0</v>
       </c>
       <c r="I100" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J100" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="K100">
         <v>99</v>
       </c>
       <c r="L100" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M100">
         <v>39</v>
@@ -7889,13 +8189,13 @@
         <v>81</v>
       </c>
       <c r="O100" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P100" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S100" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V100">
         <v>0</v>
@@ -7909,13 +8209,16 @@
       <c r="Y100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:25">
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:26">
       <c r="A101" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B101" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -7933,16 +8236,16 @@
         <v>0</v>
       </c>
       <c r="I101" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J101" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K101">
         <v>100</v>
       </c>
       <c r="L101" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M101">
         <v>39</v>
@@ -7951,13 +8254,13 @@
         <v>81</v>
       </c>
       <c r="O101" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P101" s="2">
         <v>45041.98872685185</v>
       </c>
       <c r="S101" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V101">
         <v>0</v>
@@ -7971,13 +8274,16 @@
       <c r="Y101">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:25">
+      <c r="Z101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:26">
       <c r="A102" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B102" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -7995,16 +8301,16 @@
         <v>0</v>
       </c>
       <c r="I102" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J102" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="K102">
         <v>101</v>
       </c>
       <c r="L102" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M102">
         <v>40</v>
@@ -8013,13 +8319,13 @@
         <v>82</v>
       </c>
       <c r="O102" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P102" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S102" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V102">
         <v>0</v>
@@ -8033,13 +8339,16 @@
       <c r="Y102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:25">
+      <c r="Z102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:26">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -8057,16 +8366,16 @@
         <v>0</v>
       </c>
       <c r="I103" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J103" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="K103">
         <v>102</v>
       </c>
       <c r="L103" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M103">
         <v>40</v>
@@ -8075,13 +8384,13 @@
         <v>82</v>
       </c>
       <c r="O103" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P103" s="2">
         <v>45042.75021990741</v>
       </c>
       <c r="S103" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V103">
         <v>0</v>
@@ -8095,13 +8404,16 @@
       <c r="Y103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:25">
+      <c r="Z103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:26">
       <c r="A104" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B104" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8119,16 +8431,16 @@
         <v>0</v>
       </c>
       <c r="I104" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J104" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="K104">
         <v>103</v>
       </c>
       <c r="L104" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M104">
         <v>42</v>
@@ -8137,13 +8449,13 @@
         <v>84</v>
       </c>
       <c r="O104" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P104" s="2">
         <v>45042.98253472222</v>
       </c>
       <c r="S104" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V104">
         <v>0</v>
@@ -8157,13 +8469,16 @@
       <c r="Y104">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:25">
+      <c r="Z104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:26">
       <c r="A105" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8181,16 +8496,16 @@
         <v>0</v>
       </c>
       <c r="I105" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J105" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K105">
         <v>104</v>
       </c>
       <c r="L105" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M105">
         <v>44</v>
@@ -8199,13 +8514,13 @@
         <v>87</v>
       </c>
       <c r="O105" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P105" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S105" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V105">
         <v>0</v>
@@ -8219,13 +8534,16 @@
       <c r="Y105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:25">
+      <c r="Z105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:26">
       <c r="A106" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -8243,16 +8561,16 @@
         <v>0</v>
       </c>
       <c r="I106" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J106" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="K106">
         <v>105</v>
       </c>
       <c r="L106" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M106">
         <v>44</v>
@@ -8261,13 +8579,13 @@
         <v>87</v>
       </c>
       <c r="O106" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P106" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S106" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V106">
         <v>0</v>
@@ -8281,13 +8599,16 @@
       <c r="Y106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:25">
+      <c r="Z106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:26">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -8305,16 +8626,16 @@
         <v>0</v>
       </c>
       <c r="I107" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J107" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K107">
         <v>106</v>
       </c>
       <c r="L107" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M107">
         <v>44</v>
@@ -8323,13 +8644,13 @@
         <v>87</v>
       </c>
       <c r="O107" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P107" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S107" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V107">
         <v>0</v>
@@ -8343,13 +8664,16 @@
       <c r="Y107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:25">
+      <c r="Z107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:26">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B108" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -8367,16 +8691,16 @@
         <v>0</v>
       </c>
       <c r="I108" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J108" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K108">
         <v>107</v>
       </c>
       <c r="L108" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M108">
         <v>44</v>
@@ -8385,13 +8709,13 @@
         <v>87</v>
       </c>
       <c r="O108" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P108" s="2">
         <v>45043.74630787037</v>
       </c>
       <c r="S108" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V108">
         <v>0</v>
@@ -8405,13 +8729,16 @@
       <c r="Y108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:25">
+      <c r="Z108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:26">
       <c r="A109" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -8429,16 +8756,16 @@
         <v>0</v>
       </c>
       <c r="I109" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J109" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K109">
         <v>108</v>
       </c>
       <c r="L109" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M109">
         <v>45</v>
@@ -8447,13 +8774,13 @@
         <v>88</v>
       </c>
       <c r="O109" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P109" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S109" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V109">
         <v>0</v>
@@ -8467,13 +8794,16 @@
       <c r="Y109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:25">
+      <c r="Z109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:26">
       <c r="A110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -8491,16 +8821,16 @@
         <v>0</v>
       </c>
       <c r="I110" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J110" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="K110">
         <v>109</v>
       </c>
       <c r="L110" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M110">
         <v>45</v>
@@ -8509,13 +8839,13 @@
         <v>88</v>
       </c>
       <c r="O110" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P110" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S110" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V110">
         <v>0</v>
@@ -8529,13 +8859,16 @@
       <c r="Y110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:25">
+      <c r="Z110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:26">
       <c r="A111" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B111" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -8553,16 +8886,16 @@
         <v>0</v>
       </c>
       <c r="I111" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J111" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K111">
         <v>110</v>
       </c>
       <c r="L111" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M111">
         <v>45</v>
@@ -8571,13 +8904,13 @@
         <v>88</v>
       </c>
       <c r="O111" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P111" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S111" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V111">
         <v>0</v>
@@ -8591,13 +8924,16 @@
       <c r="Y111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:25">
+      <c r="Z111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:26">
       <c r="A112" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B112" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -8615,16 +8951,16 @@
         <v>0</v>
       </c>
       <c r="I112" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J112" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K112">
         <v>111</v>
       </c>
       <c r="L112" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M112">
         <v>45</v>
@@ -8633,13 +8969,13 @@
         <v>88</v>
       </c>
       <c r="O112" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P112" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S112" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V112">
         <v>0</v>
@@ -8653,13 +8989,16 @@
       <c r="Y112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:25">
+      <c r="Z112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:26">
       <c r="A113" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B113" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -8677,16 +9016,16 @@
         <v>0</v>
       </c>
       <c r="I113" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J113" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K113">
         <v>112</v>
       </c>
       <c r="L113" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M113">
         <v>45</v>
@@ -8695,13 +9034,13 @@
         <v>88</v>
       </c>
       <c r="O113" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P113" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S113" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V113">
         <v>0</v>
@@ -8715,13 +9054,16 @@
       <c r="Y113">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:25">
+      <c r="Z113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:26">
       <c r="A114" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B114" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -8739,16 +9081,16 @@
         <v>0</v>
       </c>
       <c r="I114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J114" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K114">
         <v>113</v>
       </c>
       <c r="L114" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M114">
         <v>45</v>
@@ -8757,13 +9099,13 @@
         <v>88</v>
       </c>
       <c r="O114" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="P114" s="2">
         <v>45043.91252314814</v>
       </c>
       <c r="S114" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V114">
         <v>0</v>
@@ -8777,13 +9119,16 @@
       <c r="Y114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:25">
+      <c r="Z114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:26">
       <c r="A115" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B115" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -8801,16 +9146,16 @@
         <v>0</v>
       </c>
       <c r="I115" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J115" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="K115">
         <v>114</v>
       </c>
       <c r="L115" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M115">
         <v>46</v>
@@ -8819,13 +9164,13 @@
         <v>90</v>
       </c>
       <c r="O115" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P115" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S115" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V115">
         <v>0</v>
@@ -8839,13 +9184,16 @@
       <c r="Y115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:25">
+      <c r="Z115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:26">
       <c r="A116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -8863,16 +9211,16 @@
         <v>0</v>
       </c>
       <c r="I116" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J116" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="K116">
         <v>115</v>
       </c>
       <c r="L116" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M116">
         <v>46</v>
@@ -8881,13 +9229,13 @@
         <v>90</v>
       </c>
       <c r="O116" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P116" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S116" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V116">
         <v>0</v>
@@ -8901,13 +9249,16 @@
       <c r="Y116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:25">
+      <c r="Z116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:26">
       <c r="A117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B117" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -8925,16 +9276,16 @@
         <v>0</v>
       </c>
       <c r="I117" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J117" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K117">
         <v>116</v>
       </c>
       <c r="L117" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M117">
         <v>46</v>
@@ -8943,13 +9294,13 @@
         <v>90</v>
       </c>
       <c r="O117" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P117" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S117" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V117">
         <v>0</v>
@@ -8963,13 +9314,16 @@
       <c r="Y117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:25">
+      <c r="Z117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:26">
       <c r="A118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B118" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -8987,16 +9341,16 @@
         <v>0</v>
       </c>
       <c r="I118" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J118" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="K118">
         <v>117</v>
       </c>
       <c r="L118" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M118">
         <v>46</v>
@@ -9005,13 +9359,13 @@
         <v>90</v>
       </c>
       <c r="O118" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P118" s="2">
         <v>45043.91609953704</v>
       </c>
       <c r="S118" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V118">
         <v>0</v>
@@ -9025,13 +9379,16 @@
       <c r="Y118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:25">
+      <c r="Z118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:26">
       <c r="A119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B119" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9049,16 +9406,16 @@
         <v>0</v>
       </c>
       <c r="I119" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J119" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="K119">
         <v>118</v>
       </c>
       <c r="L119" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M119">
         <v>47</v>
@@ -9067,13 +9424,13 @@
         <v>91</v>
       </c>
       <c r="O119" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P119" s="2">
         <v>45043.91625</v>
       </c>
       <c r="S119" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V119">
         <v>0</v>
@@ -9087,13 +9444,16 @@
       <c r="Y119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:25">
+      <c r="Z119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:26">
       <c r="A120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B120" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -9111,19 +9471,19 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I120" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J120" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="K120">
         <v>119</v>
       </c>
       <c r="L120" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M120">
         <v>49</v>
@@ -9132,13 +9492,13 @@
         <v>93</v>
       </c>
       <c r="O120" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P120" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S120" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V120">
         <v>0</v>
@@ -9152,13 +9512,16 @@
       <c r="Y120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:25">
+      <c r="Z120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:26">
       <c r="A121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B121" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -9176,19 +9539,19 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I121" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J121" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K121">
         <v>120</v>
       </c>
       <c r="L121" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M121">
         <v>49</v>
@@ -9197,13 +9560,13 @@
         <v>93</v>
       </c>
       <c r="O121" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="P121" s="2">
         <v>45044.5144212963</v>
       </c>
       <c r="S121" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V121">
         <v>0</v>
@@ -9217,13 +9580,16 @@
       <c r="Y121">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:25">
+      <c r="Z121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:26">
       <c r="A122" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -9241,19 +9607,19 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="I122" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J122" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K122">
         <v>121</v>
       </c>
       <c r="L122" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M122">
         <v>50</v>
@@ -9262,13 +9628,13 @@
         <v>94</v>
       </c>
       <c r="O122" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P122" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S122" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V122">
         <v>0</v>
@@ -9282,13 +9648,16 @@
       <c r="Y122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:25">
+      <c r="Z122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:26">
       <c r="A123" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B123" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -9306,19 +9675,19 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I123" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J123" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K123">
         <v>122</v>
       </c>
       <c r="L123" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M123">
         <v>50</v>
@@ -9327,13 +9696,13 @@
         <v>94</v>
       </c>
       <c r="O123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P123" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S123" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V123">
         <v>0</v>
@@ -9347,13 +9716,16 @@
       <c r="Y123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:25">
+      <c r="Z123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:26">
       <c r="A124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B124" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -9371,19 +9743,19 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="I124" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J124" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K124">
         <v>123</v>
       </c>
       <c r="L124" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M124">
         <v>50</v>
@@ -9392,13 +9764,13 @@
         <v>94</v>
       </c>
       <c r="O124" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P124" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S124" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V124">
         <v>0</v>
@@ -9412,13 +9784,16 @@
       <c r="Y124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:25">
+      <c r="Z124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:26">
       <c r="A125" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B125" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -9436,16 +9811,16 @@
         <v>0</v>
       </c>
       <c r="I125" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J125" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="K125">
         <v>124</v>
       </c>
       <c r="L125" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M125">
         <v>50</v>
@@ -9454,13 +9829,13 @@
         <v>94</v>
       </c>
       <c r="O125" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="P125" s="2">
         <v>45044.87012731482</v>
       </c>
       <c r="S125" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V125">
         <v>0</v>
@@ -9474,13 +9849,16 @@
       <c r="Y125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:25">
+      <c r="Z125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:26">
       <c r="A126" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -9498,16 +9876,16 @@
         <v>0</v>
       </c>
       <c r="I126" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J126" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K126">
         <v>125</v>
       </c>
       <c r="L126" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M126">
         <v>51</v>
@@ -9516,13 +9894,13 @@
         <v>95</v>
       </c>
       <c r="O126" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P126" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S126" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V126">
         <v>0</v>
@@ -9536,13 +9914,16 @@
       <c r="Y126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:25">
+      <c r="Z126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:26">
       <c r="A127" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B127" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -9560,16 +9941,16 @@
         <v>0</v>
       </c>
       <c r="I127" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J127" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K127">
         <v>126</v>
       </c>
       <c r="L127" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M127">
         <v>51</v>
@@ -9578,13 +9959,13 @@
         <v>95</v>
       </c>
       <c r="O127" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P127" s="2">
         <v>45044.87517361111</v>
       </c>
       <c r="S127" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V127">
         <v>0</v>
@@ -9598,13 +9979,16 @@
       <c r="Y127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:25">
+      <c r="Z127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:26">
       <c r="A128" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B128" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -9622,16 +10006,16 @@
         <v>0</v>
       </c>
       <c r="I128" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J128" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="K128">
         <v>127</v>
       </c>
       <c r="L128" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M128">
         <v>52</v>
@@ -9640,13 +10024,13 @@
         <v>96</v>
       </c>
       <c r="O128" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P128" s="2">
         <v>45044.89894675926</v>
       </c>
       <c r="S128" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V128">
         <v>0</v>
@@ -9660,13 +10044,16 @@
       <c r="Y128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:25">
+      <c r="Z128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:26">
       <c r="A129" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -9684,16 +10071,16 @@
         <v>0</v>
       </c>
       <c r="I129" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J129" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K129">
         <v>128</v>
       </c>
       <c r="L129" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M129">
         <v>53</v>
@@ -9702,13 +10089,13 @@
         <v>98</v>
       </c>
       <c r="O129" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P129" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S129" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V129">
         <v>0</v>
@@ -9722,13 +10109,16 @@
       <c r="Y129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:25">
+      <c r="Z129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:26">
       <c r="A130" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B130" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -9746,16 +10136,16 @@
         <v>0</v>
       </c>
       <c r="I130" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J130" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K130">
         <v>129</v>
       </c>
       <c r="L130" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M130">
         <v>53</v>
@@ -9764,13 +10154,13 @@
         <v>98</v>
       </c>
       <c r="O130" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P130" s="2">
         <v>45044.94196759259</v>
       </c>
       <c r="S130" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V130">
         <v>0</v>
@@ -9784,13 +10174,16 @@
       <c r="Y130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:25">
+      <c r="Z130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:26">
       <c r="A131" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B131" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -9808,16 +10201,16 @@
         <v>0</v>
       </c>
       <c r="I131" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J131" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K131">
         <v>130</v>
       </c>
       <c r="L131" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M131">
         <v>54</v>
@@ -9826,13 +10219,13 @@
         <v>99</v>
       </c>
       <c r="O131" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P131" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S131" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V131">
         <v>0</v>
@@ -9846,13 +10239,16 @@
       <c r="Y131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:25">
+      <c r="Z131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:26">
       <c r="A132" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B132" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -9870,16 +10266,16 @@
         <v>0</v>
       </c>
       <c r="I132" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J132" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K132">
         <v>131</v>
       </c>
       <c r="L132" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M132">
         <v>54</v>
@@ -9888,13 +10284,13 @@
         <v>99</v>
       </c>
       <c r="O132" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P132" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S132" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V132">
         <v>0</v>
@@ -9908,13 +10304,16 @@
       <c r="Y132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:25">
+      <c r="Z132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:26">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B133" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -9932,16 +10331,16 @@
         <v>0</v>
       </c>
       <c r="I133" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J133" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="K133">
         <v>132</v>
       </c>
       <c r="L133" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M133">
         <v>54</v>
@@ -9950,13 +10349,13 @@
         <v>99</v>
       </c>
       <c r="O133" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P133" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S133" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V133">
         <v>0</v>
@@ -9970,13 +10369,16 @@
       <c r="Y133">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:25">
+      <c r="Z133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:26">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B134" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -9994,16 +10396,16 @@
         <v>0</v>
       </c>
       <c r="I134" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J134" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K134">
         <v>133</v>
       </c>
       <c r="L134" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M134">
         <v>54</v>
@@ -10012,13 +10414,13 @@
         <v>99</v>
       </c>
       <c r="O134" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="P134" s="2">
         <v>45044.95618055556</v>
       </c>
       <c r="S134" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V134">
         <v>0</v>
@@ -10032,13 +10434,16 @@
       <c r="Y134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:25">
+      <c r="Z134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:26">
       <c r="A135" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B135" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -10056,16 +10461,16 @@
         <v>0</v>
       </c>
       <c r="I135" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J135" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="K135">
         <v>134</v>
       </c>
       <c r="L135" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M135">
         <v>55</v>
@@ -10074,13 +10479,13 @@
         <v>100</v>
       </c>
       <c r="O135" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P135" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S135" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V135">
         <v>0</v>
@@ -10094,13 +10499,16 @@
       <c r="Y135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:25">
+      <c r="Z135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:26">
       <c r="A136" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B136" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -10118,16 +10526,16 @@
         <v>0</v>
       </c>
       <c r="I136" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J136" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K136">
         <v>135</v>
       </c>
       <c r="L136" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M136">
         <v>55</v>
@@ -10136,13 +10544,13 @@
         <v>100</v>
       </c>
       <c r="O136" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P136" s="2">
         <v>45044.97079861111</v>
       </c>
       <c r="S136" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V136">
         <v>0</v>
@@ -10156,13 +10564,16 @@
       <c r="Y136">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:25">
+      <c r="Z136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:26">
       <c r="A137" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B137" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10180,16 +10591,16 @@
         <v>0</v>
       </c>
       <c r="I137" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J137" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="K137">
         <v>136</v>
       </c>
       <c r="L137" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M137">
         <v>56</v>
@@ -10198,13 +10609,13 @@
         <v>101</v>
       </c>
       <c r="O137" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P137" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S137" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V137">
         <v>0</v>
@@ -10218,13 +10629,16 @@
       <c r="Y137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:25">
+      <c r="Z137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:26">
       <c r="A138" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B138" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10242,16 +10656,16 @@
         <v>0</v>
       </c>
       <c r="I138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K138">
         <v>137</v>
       </c>
       <c r="L138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M138">
         <v>56</v>
@@ -10260,13 +10674,13 @@
         <v>101</v>
       </c>
       <c r="O138" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P138" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S138" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V138">
         <v>0</v>
@@ -10280,13 +10694,16 @@
       <c r="Y138">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:25">
+      <c r="Z138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:26">
       <c r="A139" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B139" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10304,16 +10721,16 @@
         <v>0</v>
       </c>
       <c r="I139" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J139" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K139">
         <v>138</v>
       </c>
       <c r="L139" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M139">
         <v>56</v>
@@ -10322,13 +10739,13 @@
         <v>101</v>
       </c>
       <c r="O139" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="P139" s="2">
         <v>45044.98814814815</v>
       </c>
       <c r="S139" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V139">
         <v>0</v>
@@ -10342,13 +10759,16 @@
       <c r="Y139">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:25">
+      <c r="Z139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:26">
       <c r="A140" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B140" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10366,16 +10786,16 @@
         <v>0</v>
       </c>
       <c r="I140" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J140" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K140">
         <v>139</v>
       </c>
       <c r="L140" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M140">
         <v>57</v>
@@ -10384,13 +10804,13 @@
         <v>102</v>
       </c>
       <c r="O140" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P140" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S140" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V140">
         <v>0</v>
@@ -10404,13 +10824,16 @@
       <c r="Y140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:25">
+      <c r="Z140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:26">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B141" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10428,16 +10851,16 @@
         <v>0</v>
       </c>
       <c r="I141" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J141" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K141">
         <v>140</v>
       </c>
       <c r="L141" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M141">
         <v>57</v>
@@ -10446,13 +10869,13 @@
         <v>102</v>
       </c>
       <c r="O141" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P141" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S141" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V141">
         <v>0</v>
@@ -10466,13 +10889,16 @@
       <c r="Y141">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:25">
+      <c r="Z141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:26">
       <c r="A142" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B142" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10490,16 +10916,16 @@
         <v>0</v>
       </c>
       <c r="I142" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J142" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="K142">
         <v>141</v>
       </c>
       <c r="L142" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M142">
         <v>57</v>
@@ -10508,13 +10934,13 @@
         <v>102</v>
       </c>
       <c r="O142" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P142" s="2">
         <v>45045.00479166667</v>
       </c>
       <c r="S142" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V142">
         <v>0</v>
@@ -10528,13 +10954,16 @@
       <c r="Y142">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:25">
+      <c r="Z142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:26">
       <c r="A143" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B143" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -10552,19 +10981,19 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I143" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J143" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K143">
         <v>142</v>
       </c>
       <c r="L143" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M143">
         <v>58</v>
@@ -10573,13 +11002,13 @@
         <v>103</v>
       </c>
       <c r="O143" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P143" s="2">
         <v>45045.07196759259</v>
       </c>
       <c r="S143" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V143">
         <v>0</v>
@@ -10593,13 +11022,16 @@
       <c r="Y143">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:25">
+      <c r="Z143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:26">
       <c r="A144" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B144" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10617,16 +11049,16 @@
         <v>0</v>
       </c>
       <c r="I144" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J144" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K144">
         <v>143</v>
       </c>
       <c r="L144" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M144">
         <v>59</v>
@@ -10635,13 +11067,13 @@
         <v>104</v>
       </c>
       <c r="O144" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P144" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S144" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V144">
         <v>0</v>
@@ -10655,13 +11087,16 @@
       <c r="Y144">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:25">
+      <c r="Z144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:26">
       <c r="A145" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10679,16 +11114,16 @@
         <v>0</v>
       </c>
       <c r="I145" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J145" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K145">
         <v>144</v>
       </c>
       <c r="L145" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M145">
         <v>59</v>
@@ -10697,13 +11132,13 @@
         <v>104</v>
       </c>
       <c r="O145" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="P145" s="2">
         <v>45045.12083333333</v>
       </c>
       <c r="S145" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V145">
         <v>0</v>
@@ -10717,13 +11152,16 @@
       <c r="Y145">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:25">
+      <c r="Z145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:26">
       <c r="A146" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B146" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -10741,16 +11179,16 @@
         <v>0</v>
       </c>
       <c r="I146" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J146" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="K146">
         <v>145</v>
       </c>
       <c r="L146" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M146">
         <v>60</v>
@@ -10759,13 +11197,13 @@
         <v>105</v>
       </c>
       <c r="O146" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="P146" s="2">
         <v>45045.13675925926</v>
       </c>
       <c r="S146" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V146">
         <v>0</v>
@@ -10779,13 +11217,16 @@
       <c r="Y146">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:25">
+      <c r="Z146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:26">
       <c r="A147" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B147" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -10803,16 +11244,16 @@
         <v>0</v>
       </c>
       <c r="I147" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J147" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K147">
         <v>146</v>
       </c>
       <c r="L147" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M147">
         <v>61</v>
@@ -10821,13 +11262,13 @@
         <v>106</v>
       </c>
       <c r="O147" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="P147" s="2">
         <v>45045.14796296296</v>
       </c>
       <c r="S147" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V147">
         <v>0</v>
@@ -10841,13 +11282,16 @@
       <c r="Y147">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:25">
+      <c r="Z147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:26">
       <c r="A148" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B148" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -10865,16 +11309,16 @@
         <v>0</v>
       </c>
       <c r="I148" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J148" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K148">
         <v>147</v>
       </c>
       <c r="L148" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M148">
         <v>63</v>
@@ -10883,13 +11327,13 @@
         <v>110</v>
       </c>
       <c r="O148" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="P148" s="2">
         <v>45045.20893518518</v>
       </c>
       <c r="S148" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V148">
         <v>0</v>
@@ -10903,13 +11347,16 @@
       <c r="Y148">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:25">
+      <c r="Z148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:26">
       <c r="A149" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B149" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -10927,16 +11374,16 @@
         <v>0</v>
       </c>
       <c r="I149" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J149" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K149">
         <v>148</v>
       </c>
       <c r="L149" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M149">
         <v>64</v>
@@ -10945,13 +11392,13 @@
         <v>111</v>
       </c>
       <c r="O149" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P149" s="2">
         <v>45045.67958333333</v>
       </c>
       <c r="S149" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V149">
         <v>0</v>
@@ -10965,13 +11412,16 @@
       <c r="Y149">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:25">
+      <c r="Z149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:26">
       <c r="A150" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B150" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -10989,16 +11439,16 @@
         <v>0</v>
       </c>
       <c r="I150" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J150" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K150">
         <v>149</v>
       </c>
       <c r="L150" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M150">
         <v>65</v>
@@ -11007,13 +11457,13 @@
         <v>113</v>
       </c>
       <c r="O150" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="P150" s="2">
         <v>45046.88504629629</v>
       </c>
       <c r="S150" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V150">
         <v>0</v>
@@ -11027,13 +11477,16 @@
       <c r="Y150">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:25">
+      <c r="Z150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:26">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B151" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11051,16 +11504,16 @@
         <v>0</v>
       </c>
       <c r="I151" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J151" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="K151">
         <v>150</v>
       </c>
       <c r="L151" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M151">
         <v>67</v>
@@ -11069,13 +11522,13 @@
         <v>115</v>
       </c>
       <c r="O151" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P151" s="2">
         <v>45048.69172453704</v>
       </c>
       <c r="S151" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="V151">
         <v>0</v>
@@ -11089,13 +11542,16 @@
       <c r="Y151">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:25">
+      <c r="Z151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:26">
       <c r="A152" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11113,16 +11569,16 @@
         <v>0</v>
       </c>
       <c r="I152" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J152" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="K152">
         <v>151</v>
       </c>
       <c r="L152" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M152">
         <v>70</v>
@@ -11131,13 +11587,13 @@
         <v>119</v>
       </c>
       <c r="O152" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P152" s="2">
         <v>45059.22766203704</v>
       </c>
       <c r="S152" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V152">
         <v>0</v>
@@ -11149,6 +11605,9 @@
         <v>0</v>
       </c>
       <c r="Y152">
+        <v>0</v>
+      </c>
+      <c r="Z152">
         <v>0</v>
       </c>
     </row>

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -7267,7 +7267,7 @@
         <v>418</v>
       </c>
       <c r="V86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W86">
         <v>0</v>
@@ -7276,10 +7276,10 @@
         <v>0</v>
       </c>
       <c r="Y86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="87" spans="1:26">
@@ -7335,16 +7335,16 @@
         <v>0</v>
       </c>
       <c r="W87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X87">
         <v>0</v>
       </c>
       <c r="Y87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Z87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="88" spans="1:26">

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -8523,19 +8523,19 @@
         <v>418</v>
       </c>
       <c r="V105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -8588,19 +8588,19 @@
         <v>418</v>
       </c>
       <c r="V106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -8653,19 +8653,19 @@
         <v>418</v>
       </c>
       <c r="V107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -8718,19 +8718,19 @@
         <v>418</v>
       </c>
       <c r="V108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="109" spans="1:26">

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -7332,10 +7332,10 @@
         <v>418</v>
       </c>
       <c r="V87">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W87">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X87">
         <v>0</v>
@@ -8523,19 +8523,19 @@
         <v>418</v>
       </c>
       <c r="V105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X105">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y105">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z105">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:26">
@@ -8588,19 +8588,19 @@
         <v>418</v>
       </c>
       <c r="V106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X106">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y106">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z106">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:26">
@@ -8653,19 +8653,19 @@
         <v>418</v>
       </c>
       <c r="V107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X107">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y107">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z107">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:26">
@@ -8718,19 +8718,19 @@
         <v>418</v>
       </c>
       <c r="V108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="W108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="X108">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="Z108">
-        <v>1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:26">

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -5119,7 +5119,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -5191,7 +5191,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -5263,7 +5263,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="67">
@@ -5335,7 +5335,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="68">

--- a/files/separadas/repeat_p20.xlsx
+++ b/files/separadas/repeat_p20.xlsx
@@ -841,7 +841,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -913,7 +913,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -985,7 +985,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -7887,7 +7887,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -7959,7 +7959,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104">
@@ -9995,7 +9995,7 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr"/>
       <c r="V131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -10139,7 +10139,7 @@
       <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr"/>
       <c r="V133" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="134">
@@ -10211,7 +10211,7 @@
       <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr"/>
       <c r="V134" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="135">
@@ -10935,7 +10935,7 @@
       <c r="T144" t="inlineStr"/>
       <c r="U144" t="inlineStr"/>
       <c r="V144" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="145">
@@ -11007,7 +11007,7 @@
       <c r="T145" t="inlineStr"/>
       <c r="U145" t="inlineStr"/>
       <c r="V145" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="146">
@@ -11153,7 +11153,7 @@
       <c r="T147" t="inlineStr"/>
       <c r="U147" t="inlineStr"/>
       <c r="V147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -11225,7 +11225,7 @@
       <c r="T148" t="inlineStr"/>
       <c r="U148" t="inlineStr"/>
       <c r="V148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
